--- a/.xlsx/full_stock_classification.xlsx
+++ b/.xlsx/full_stock_classification.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\twan-projects\stock_db\.xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\twan-projects\py-app\.xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127F9732-94D5-4F8E-AB6D-3A0D3480EEC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECDB2AF-622F-421F-B3CB-445FE0C9F766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22046" yWindow="-103" windowWidth="22149" windowHeight="13200" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quarter_stock_list" sheetId="5" r:id="rId1"/>
@@ -20,10 +20,13 @@
     <sheet name="exchange_list" sheetId="8" r:id="rId5"/>
     <sheet name="name_map" sheetId="3" r:id="rId6"/>
     <sheet name="signal_stock" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">classification!$A$1:$G$646</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">full_stock_list!$A$2:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet1!$A$1:$A$403</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!$A$1:$A$403</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17162" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17968" uniqueCount="1759">
   <si>
     <t>PGC</t>
   </si>
@@ -5421,7 +5424,48 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -31057,9 +31101,9 @@
         <f>VLOOKUP(D2,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G2" t="e">
+      <c r="G2" t="str">
         <f>VLOOKUP(A2,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -31086,9 +31130,9 @@
         <f>VLOOKUP(D3,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G3" t="e">
+      <c r="G3" t="str">
         <f>VLOOKUP(A3,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -31347,9 +31391,9 @@
         <f>VLOOKUP(D12,name_map!$A$2:$D$32,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
-      <c r="G12" t="e">
+      <c r="G12" t="str">
         <f>VLOOKUP(A12,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -31521,9 +31565,9 @@
         <f>VLOOKUP(D18,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G18" t="e">
+      <c r="G18" t="str">
         <f>VLOOKUP(A18,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -31608,9 +31652,9 @@
         <f>VLOOKUP(D21,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G21" t="e">
+      <c r="G21" t="str">
         <f>VLOOKUP(A21,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -31695,9 +31739,9 @@
         <f>VLOOKUP(D24,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G24" t="e">
+      <c r="G24" t="str">
         <f>VLOOKUP(A24,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -31811,9 +31855,9 @@
         <f>VLOOKUP(D28,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G28" t="e">
+      <c r="G28" t="str">
         <f>VLOOKUP(A28,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -31898,9 +31942,9 @@
         <f>VLOOKUP(D31,name_map!$A$2:$D$32,3,0)</f>
         <v>Khoáng sản</v>
       </c>
-      <c r="G31" t="e">
+      <c r="G31" t="str">
         <f>VLOOKUP(A31,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -31985,9 +32029,9 @@
         <f>VLOOKUP(D34,name_map!$A$2:$D$32,3,0)</f>
         <v>Khoáng sản</v>
       </c>
-      <c r="G34" t="e">
+      <c r="G34" t="str">
         <f>VLOOKUP(A34,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -32043,9 +32087,9 @@
         <f>VLOOKUP(D36,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G36" t="e">
+      <c r="G36" t="str">
         <f>VLOOKUP(A36,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -32072,9 +32116,9 @@
         <f>VLOOKUP(D37,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G37" t="e">
+      <c r="G37" t="str">
         <f>VLOOKUP(A37,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -32188,9 +32232,9 @@
         <f>VLOOKUP(D41,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G41" t="e">
+      <c r="G41" t="str">
         <f>VLOOKUP(A41,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -32275,9 +32319,9 @@
         <f>VLOOKUP(D44,name_map!$A$2:$D$32,3,0)</f>
         <v>Dệt may</v>
       </c>
-      <c r="G44" t="e">
+      <c r="G44" t="str">
         <f>VLOOKUP(A44,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -32304,9 +32348,9 @@
         <f>VLOOKUP(D45,name_map!$A$2:$D$32,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
-      <c r="G45" t="e">
+      <c r="G45" t="str">
         <f>VLOOKUP(A45,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -32478,9 +32522,9 @@
         <f>VLOOKUP(D51,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghiệp</v>
       </c>
-      <c r="G51" t="e">
+      <c r="G51" t="str">
         <f>VLOOKUP(A51,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -32565,9 +32609,9 @@
         <f>VLOOKUP(D54,name_map!$A$2:$D$32,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
-      <c r="G54" t="e">
+      <c r="G54" t="str">
         <f>VLOOKUP(A54,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -32710,9 +32754,9 @@
         <f>VLOOKUP(D59,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G59" t="e">
+      <c r="G59" t="str">
         <f>VLOOKUP(A59,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -33000,9 +33044,9 @@
         <f>VLOOKUP(D69,name_map!$A$2:$D$32,3,0)</f>
         <v>Ngân hàng</v>
       </c>
-      <c r="G69" t="e">
+      <c r="G69" t="str">
         <f>VLOOKUP(A69,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -33058,9 +33102,9 @@
         <f>VLOOKUP(D71,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G71" t="e">
+      <c r="G71" t="str">
         <f>VLOOKUP(A71,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -33174,9 +33218,9 @@
         <f>VLOOKUP(D75,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G75" t="e">
+      <c r="G75" t="str">
         <f>VLOOKUP(A75,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -33261,9 +33305,9 @@
         <f>VLOOKUP(D78,name_map!$A$2:$D$32,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
-      <c r="G78" t="e">
+      <c r="G78" t="str">
         <f>VLOOKUP(A78,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -33319,9 +33363,9 @@
         <f>VLOOKUP(D80,name_map!$A$2:$D$32,3,0)</f>
         <v>Khoáng sản</v>
       </c>
-      <c r="G80" t="e">
+      <c r="G80" t="str">
         <f>VLOOKUP(A80,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -33377,9 +33421,9 @@
         <f>VLOOKUP(D82,name_map!$A$2:$D$32,3,0)</f>
         <v>Dầu khí</v>
       </c>
-      <c r="G82" t="e">
+      <c r="G82" t="str">
         <f>VLOOKUP(A82,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -33406,9 +33450,9 @@
         <f>VLOOKUP(D83,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G83" t="e">
+      <c r="G83" t="str">
         <f>VLOOKUP(A83,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -33493,9 +33537,9 @@
         <f>VLOOKUP(D86,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G86" t="e">
+      <c r="G86" t="str">
         <f>VLOOKUP(A86,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -33638,9 +33682,9 @@
         <f>VLOOKUP(D91,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G91" t="e">
+      <c r="G91" t="str">
         <f>VLOOKUP(A91,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -33783,9 +33827,9 @@
         <f>VLOOKUP(D96,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G96" t="e">
+      <c r="G96" t="str">
         <f>VLOOKUP(A96,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -33928,9 +33972,9 @@
         <f>VLOOKUP(D101,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G101" t="e">
+      <c r="G101" t="str">
         <f>VLOOKUP(A101,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -34044,9 +34088,9 @@
         <f>VLOOKUP(D105,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G105" t="e">
+      <c r="G105" t="str">
         <f>VLOOKUP(A105,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -34247,9 +34291,9 @@
         <f>VLOOKUP(D112,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G112" t="e">
+      <c r="G112" t="str">
         <f>VLOOKUP(A112,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
@@ -34276,9 +34320,9 @@
         <f>VLOOKUP(D113,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G113" t="e">
+      <c r="G113" t="str">
         <f>VLOOKUP(A113,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
@@ -34305,9 +34349,9 @@
         <f>VLOOKUP(D114,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G114" t="e">
+      <c r="G114" t="str">
         <f>VLOOKUP(A114,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
@@ -34363,9 +34407,9 @@
         <f>VLOOKUP(D116,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G116" t="e">
+      <c r="G116" t="str">
         <f>VLOOKUP(A116,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
@@ -34508,9 +34552,9 @@
         <f>VLOOKUP(D121,name_map!$A$2:$D$32,3,0)</f>
         <v>Chứng khoán</v>
       </c>
-      <c r="G121" t="e">
+      <c r="G121" t="str">
         <f>VLOOKUP(A121,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -34566,9 +34610,9 @@
         <f>VLOOKUP(D123,name_map!$A$2:$D$32,3,0)</f>
         <v>Chứng khoán</v>
       </c>
-      <c r="G123" t="e">
+      <c r="G123" t="str">
         <f>VLOOKUP(A123,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -34595,9 +34639,9 @@
         <f>VLOOKUP(D124,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghiệp</v>
       </c>
-      <c r="G124" t="e">
+      <c r="G124" t="str">
         <f>VLOOKUP(A124,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
@@ -34653,9 +34697,9 @@
         <f>VLOOKUP(D126,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G126" t="e">
+      <c r="G126" t="str">
         <f>VLOOKUP(A126,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
@@ -34798,9 +34842,9 @@
         <f>VLOOKUP(D131,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G131" t="e">
+      <c r="G131" t="str">
         <f>VLOOKUP(A131,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -34885,9 +34929,9 @@
         <f>VLOOKUP(D134,name_map!$A$2:$D$32,3,0)</f>
         <v>Khoáng sản</v>
       </c>
-      <c r="G134" t="e">
+      <c r="G134" t="str">
         <f>VLOOKUP(A134,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -34914,9 +34958,9 @@
         <f>VLOOKUP(D135,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G135" t="e">
+      <c r="G135" t="str">
         <f>VLOOKUP(A135,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -35175,9 +35219,9 @@
         <f>VLOOKUP(D144,name_map!$A$2:$D$32,3,0)</f>
         <v>Khoáng sản</v>
       </c>
-      <c r="G144" t="e">
+      <c r="G144" t="str">
         <f>VLOOKUP(A144,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
@@ -35233,9 +35277,9 @@
         <f>VLOOKUP(D146,name_map!$A$2:$D$32,3,0)</f>
         <v>Công ty tài chính</v>
       </c>
-      <c r="G146" t="e">
+      <c r="G146" t="str">
         <f>VLOOKUP(A146,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
@@ -35262,9 +35306,9 @@
         <f>VLOOKUP(D147,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G147" t="e">
+      <c r="G147" t="str">
         <f>VLOOKUP(A147,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
@@ -35378,9 +35422,9 @@
         <f>VLOOKUP(D151,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G151" t="e">
+      <c r="G151" t="str">
         <f>VLOOKUP(A151,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
@@ -35436,9 +35480,9 @@
         <f>VLOOKUP(D153,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G153" t="e">
+      <c r="G153" t="str">
         <f>VLOOKUP(A153,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
@@ -35494,9 +35538,9 @@
         <f>VLOOKUP(D155,name_map!$A$2:$D$32,3,0)</f>
         <v>Khoáng sản</v>
       </c>
-      <c r="G155" t="e">
+      <c r="G155" t="str">
         <f>VLOOKUP(A155,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
@@ -35610,9 +35654,9 @@
         <f>VLOOKUP(D159,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G159" t="e">
+      <c r="G159" t="str">
         <f>VLOOKUP(A159,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
@@ -35697,9 +35741,9 @@
         <f>VLOOKUP(D162,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G162" t="e">
+      <c r="G162" t="str">
         <f>VLOOKUP(A162,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
@@ -35755,9 +35799,9 @@
         <f>VLOOKUP(D164,name_map!$A$2:$D$32,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
-      <c r="G164" t="e">
+      <c r="G164" t="str">
         <f>VLOOKUP(A164,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
@@ -35871,9 +35915,9 @@
         <f>VLOOKUP(D168,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G168" t="e">
+      <c r="G168" t="str">
         <f>VLOOKUP(A168,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -36045,9 +36089,9 @@
         <f>VLOOKUP(D174,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghiệp</v>
       </c>
-      <c r="G174" t="e">
+      <c r="G174" t="str">
         <f>VLOOKUP(A174,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
@@ -36074,9 +36118,9 @@
         <f>VLOOKUP(D175,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G175" t="e">
+      <c r="G175" t="str">
         <f>VLOOKUP(A175,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
@@ -36190,9 +36234,9 @@
         <f>VLOOKUP(D179,name_map!$A$2:$D$32,3,0)</f>
         <v>Khoáng sản</v>
       </c>
-      <c r="G179" t="e">
+      <c r="G179" t="str">
         <f>VLOOKUP(A179,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
@@ -36219,9 +36263,9 @@
         <f>VLOOKUP(D180,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G180" t="e">
+      <c r="G180" t="str">
         <f>VLOOKUP(A180,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -36248,9 +36292,9 @@
         <f>VLOOKUP(D181,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G181" t="e">
+      <c r="G181" t="str">
         <f>VLOOKUP(A181,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
@@ -36306,9 +36350,9 @@
         <f>VLOOKUP(D183,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G183" t="e">
+      <c r="G183" t="str">
         <f>VLOOKUP(A183,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
@@ -36364,9 +36408,9 @@
         <f>VLOOKUP(D185,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G185" t="e">
+      <c r="G185" t="str">
         <f>VLOOKUP(A185,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
@@ -36422,9 +36466,9 @@
         <f>VLOOKUP(D187,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghiệp</v>
       </c>
-      <c r="G187" t="e">
+      <c r="G187" t="str">
         <f>VLOOKUP(A187,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
@@ -36741,9 +36785,9 @@
         <f>VLOOKUP(D198,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G198" t="e">
+      <c r="G198" t="str">
         <f>VLOOKUP(A198,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -36799,9 +36843,9 @@
         <f>VLOOKUP(D200,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G200" t="e">
+      <c r="G200" t="str">
         <f>VLOOKUP(A200,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -37060,9 +37104,9 @@
         <f>VLOOKUP(D209,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G209" t="e">
+      <c r="G209" t="str">
         <f>VLOOKUP(A209,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
@@ -37118,9 +37162,9 @@
         <f>VLOOKUP(D211,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G211" t="e">
+      <c r="G211" t="str">
         <f>VLOOKUP(A211,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
@@ -37205,9 +37249,9 @@
         <f>VLOOKUP(D214,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G214" t="e">
+      <c r="G214" t="str">
         <f>VLOOKUP(A214,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
@@ -37321,9 +37365,9 @@
         <f>VLOOKUP(D218,name_map!$A$2:$D$32,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
-      <c r="G218" t="e">
+      <c r="G218" t="str">
         <f>VLOOKUP(A218,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
@@ -37350,9 +37394,9 @@
         <f>VLOOKUP(D219,name_map!$A$2:$D$32,3,0)</f>
         <v>Hoá chất</v>
       </c>
-      <c r="G219" t="e">
+      <c r="G219" t="str">
         <f>VLOOKUP(A219,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
@@ -37524,9 +37568,9 @@
         <f>VLOOKUP(D225,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G225" t="e">
+      <c r="G225" t="str">
         <f>VLOOKUP(A225,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
@@ -37553,9 +37597,9 @@
         <f>VLOOKUP(D226,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G226" t="e">
+      <c r="G226" t="str">
         <f>VLOOKUP(A226,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
@@ -37582,9 +37626,9 @@
         <f>VLOOKUP(D227,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G227" t="e">
+      <c r="G227" t="str">
         <f>VLOOKUP(A227,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
@@ -37727,9 +37771,9 @@
         <f>VLOOKUP(D232,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G232" t="e">
+      <c r="G232" t="str">
         <f>VLOOKUP(A232,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
@@ -37785,9 +37829,9 @@
         <f>VLOOKUP(D234,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G234" t="e">
+      <c r="G234" t="str">
         <f>VLOOKUP(A234,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
@@ -37843,9 +37887,9 @@
         <f>VLOOKUP(D236,name_map!$A$2:$D$32,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
-      <c r="G236" t="e">
+      <c r="G236" t="str">
         <f>VLOOKUP(A236,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -38046,9 +38090,9 @@
         <f>VLOOKUP(D243,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G243" t="e">
+      <c r="G243" t="str">
         <f>VLOOKUP(A243,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
@@ -38075,9 +38119,9 @@
         <f>VLOOKUP(D244,name_map!$A$2:$D$32,3,0)</f>
         <v>Dệt may</v>
       </c>
-      <c r="G244" t="e">
+      <c r="G244" t="str">
         <f>VLOOKUP(A244,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
@@ -38104,9 +38148,9 @@
         <f>VLOOKUP(D245,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G245" t="e">
+      <c r="G245" t="str">
         <f>VLOOKUP(A245,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
@@ -38249,9 +38293,9 @@
         <f>VLOOKUP(D250,name_map!$A$2:$D$32,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
-      <c r="G250" t="e">
+      <c r="G250" t="str">
         <f>VLOOKUP(A250,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
@@ -38278,9 +38322,9 @@
         <f>VLOOKUP(D251,name_map!$A$2:$D$32,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
-      <c r="G251" t="e">
+      <c r="G251" t="str">
         <f>VLOOKUP(A251,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
@@ -38365,9 +38409,9 @@
         <f>VLOOKUP(D254,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G254" t="e">
+      <c r="G254" t="str">
         <f>VLOOKUP(A254,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
@@ -38452,9 +38496,9 @@
         <f>VLOOKUP(D257,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghiệp</v>
       </c>
-      <c r="G257" t="e">
+      <c r="G257" t="str">
         <f>VLOOKUP(A257,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
@@ -38481,9 +38525,9 @@
         <f>VLOOKUP(D258,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G258" t="e">
+      <c r="G258" t="str">
         <f>VLOOKUP(A258,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
@@ -38597,9 +38641,9 @@
         <f>VLOOKUP(D262,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghiệp</v>
       </c>
-      <c r="G262" t="e">
+      <c r="G262" t="str">
         <f>VLOOKUP(A262,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
@@ -38626,9 +38670,9 @@
         <f>VLOOKUP(D263,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G263" t="e">
+      <c r="G263" t="str">
         <f>VLOOKUP(A263,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
@@ -38655,9 +38699,9 @@
         <f>VLOOKUP(D264,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G264" t="e">
+      <c r="G264" t="str">
         <f>VLOOKUP(A264,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
@@ -38713,9 +38757,9 @@
         <f>VLOOKUP(D266,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G266" t="e">
+      <c r="G266" t="str">
         <f>VLOOKUP(A266,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -38742,9 +38786,9 @@
         <f>VLOOKUP(D267,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G267" t="e">
+      <c r="G267" t="str">
         <f>VLOOKUP(A267,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
@@ -38887,9 +38931,9 @@
         <f>VLOOKUP(D272,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G272" t="e">
+      <c r="G272" t="str">
         <f>VLOOKUP(A272,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
@@ -38916,9 +38960,9 @@
         <f>VLOOKUP(D273,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghệ</v>
       </c>
-      <c r="G273" t="e">
+      <c r="G273" t="str">
         <f>VLOOKUP(A273,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
@@ -39090,9 +39134,9 @@
         <f>VLOOKUP(D279,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G279" t="e">
+      <c r="G279" t="str">
         <f>VLOOKUP(A279,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
@@ -39148,9 +39192,9 @@
         <f>VLOOKUP(D281,name_map!$A$2:$D$32,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
-      <c r="G281" t="e">
+      <c r="G281" t="str">
         <f>VLOOKUP(A281,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
@@ -39177,9 +39221,9 @@
         <f>VLOOKUP(D282,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G282" t="e">
+      <c r="G282" t="str">
         <f>VLOOKUP(A282,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
@@ -39206,9 +39250,9 @@
         <f>VLOOKUP(D283,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G283" t="e">
+      <c r="G283" t="str">
         <f>VLOOKUP(A283,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
@@ -39264,9 +39308,9 @@
         <f>VLOOKUP(D285,name_map!$A$2:$D$32,3,0)</f>
         <v>Chứng khoán</v>
       </c>
-      <c r="G285" t="e">
+      <c r="G285" t="str">
         <f>VLOOKUP(A285,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -39322,9 +39366,9 @@
         <f>VLOOKUP(D287,name_map!$A$2:$D$32,3,0)</f>
         <v>Bán lẻ</v>
       </c>
-      <c r="G287" t="e">
+      <c r="G287" t="str">
         <f>VLOOKUP(A287,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
@@ -39351,9 +39395,9 @@
         <f>VLOOKUP(D288,name_map!$A$2:$D$32,3,0)</f>
         <v>Hoá chất</v>
       </c>
-      <c r="G288" t="e">
+      <c r="G288" t="str">
         <f>VLOOKUP(A288,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
@@ -39438,9 +39482,9 @@
         <f>VLOOKUP(D291,name_map!$A$2:$D$32,3,0)</f>
         <v>Hoá chất</v>
       </c>
-      <c r="G291" t="e">
+      <c r="G291" t="str">
         <f>VLOOKUP(A291,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
@@ -39525,9 +39569,9 @@
         <f>VLOOKUP(D294,name_map!$A$2:$D$32,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
-      <c r="G294" t="e">
+      <c r="G294" t="str">
         <f>VLOOKUP(A294,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
@@ -39583,9 +39627,9 @@
         <f>VLOOKUP(D296,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G296" t="e">
+      <c r="G296" t="str">
         <f>VLOOKUP(A296,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
@@ -39699,9 +39743,9 @@
         <f>VLOOKUP(D300,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G300" t="e">
+      <c r="G300" t="str">
         <f>VLOOKUP(A300,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
@@ -39873,9 +39917,9 @@
         <f>VLOOKUP(D306,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G306" t="e">
+      <c r="G306" t="str">
         <f>VLOOKUP(A306,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
@@ -39902,9 +39946,9 @@
         <f>VLOOKUP(D307,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G307" t="e">
+      <c r="G307" t="str">
         <f>VLOOKUP(A307,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
@@ -39931,9 +39975,9 @@
         <f>VLOOKUP(D308,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G308" t="e">
+      <c r="G308" t="str">
         <f>VLOOKUP(A308,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
@@ -39989,9 +40033,9 @@
         <f>VLOOKUP(D310,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G310" t="e">
+      <c r="G310" t="str">
         <f>VLOOKUP(A310,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
@@ -40047,9 +40091,9 @@
         <f>VLOOKUP(D312,name_map!$A$2:$D$32,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
-      <c r="G312" t="e">
+      <c r="G312" t="str">
         <f>VLOOKUP(A312,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
@@ -40076,9 +40120,9 @@
         <f>VLOOKUP(D313,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G313" t="e">
+      <c r="G313" t="str">
         <f>VLOOKUP(A313,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
@@ -40163,9 +40207,9 @@
         <f>VLOOKUP(D316,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G316" t="e">
+      <c r="G316" t="str">
         <f>VLOOKUP(A316,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
@@ -40250,9 +40294,9 @@
         <f>VLOOKUP(D319,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G319" t="e">
+      <c r="G319" t="str">
         <f>VLOOKUP(A319,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
@@ -40395,9 +40439,9 @@
         <f>VLOOKUP(D324,name_map!$A$2:$D$32,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
-      <c r="G324" t="e">
+      <c r="G324" t="str">
         <f>VLOOKUP(A324,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
@@ -40511,9 +40555,9 @@
         <f>VLOOKUP(D328,name_map!$A$2:$D$32,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
-      <c r="G328" t="e">
+      <c r="G328" t="str">
         <f>VLOOKUP(A328,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
@@ -40684,9 +40728,9 @@
         <f>VLOOKUP(D334,name_map!$A$2:$D$32,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
-      <c r="G334" t="e">
+      <c r="G334" t="str">
         <f>VLOOKUP(A334,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
@@ -40713,9 +40757,9 @@
         <f>VLOOKUP(D335,name_map!$A$2:$D$32,3,0)</f>
         <v>Khoáng sản</v>
       </c>
-      <c r="G335" t="e">
+      <c r="G335" t="str">
         <f>VLOOKUP(A335,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
@@ -40800,9 +40844,9 @@
         <f>VLOOKUP(D338,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G338" t="e">
+      <c r="G338" t="str">
         <f>VLOOKUP(A338,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
@@ -40858,9 +40902,9 @@
         <f>VLOOKUP(D340,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G340" t="e">
+      <c r="G340" t="str">
         <f>VLOOKUP(A340,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
@@ -40887,9 +40931,9 @@
         <f>VLOOKUP(D341,name_map!$A$2:$D$32,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
-      <c r="G341" t="e">
+      <c r="G341" t="str">
         <f>VLOOKUP(A341,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
@@ -40974,9 +41018,9 @@
         <f>VLOOKUP(D344,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G344" t="e">
+      <c r="G344" t="str">
         <f>VLOOKUP(A344,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
@@ -41032,9 +41076,9 @@
         <f>VLOOKUP(D346,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G346" t="e">
+      <c r="G346" t="str">
         <f>VLOOKUP(A346,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -41148,9 +41192,9 @@
         <f>VLOOKUP(D350,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G350" t="e">
+      <c r="G350" t="str">
         <f>VLOOKUP(A350,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
@@ -41177,9 +41221,9 @@
         <f>VLOOKUP(D351,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G351" t="e">
+      <c r="G351" t="str">
         <f>VLOOKUP(A351,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
@@ -41235,9 +41279,9 @@
         <f>VLOOKUP(D353,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G353" t="e">
+      <c r="G353" t="str">
         <f>VLOOKUP(A353,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
@@ -41264,9 +41308,9 @@
         <f>VLOOKUP(D354,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G354" t="e">
+      <c r="G354" t="str">
         <f>VLOOKUP(A354,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
@@ -41322,9 +41366,9 @@
         <f>VLOOKUP(D356,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghệ</v>
       </c>
-      <c r="G356" t="e">
+      <c r="G356" t="str">
         <f>VLOOKUP(A356,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -41467,9 +41511,9 @@
         <f>VLOOKUP(D361,name_map!$A$2:$D$32,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
-      <c r="G361" t="e">
+      <c r="G361" t="str">
         <f>VLOOKUP(A361,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
@@ -41525,9 +41569,9 @@
         <f>VLOOKUP(D363,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G363" t="e">
+      <c r="G363" t="str">
         <f>VLOOKUP(A363,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
@@ -41612,9 +41656,9 @@
         <f>VLOOKUP(D366,name_map!$A$2:$D$32,3,0)</f>
         <v>Hoá chất</v>
       </c>
-      <c r="G366" t="e">
+      <c r="G366" t="str">
         <f>VLOOKUP(A366,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -41757,9 +41801,9 @@
         <f>VLOOKUP(D371,name_map!$A$2:$D$32,3,0)</f>
         <v>Hoá chất</v>
       </c>
-      <c r="G371" t="e">
+      <c r="G371" t="str">
         <f>VLOOKUP(A371,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
@@ -41786,9 +41830,9 @@
         <f>VLOOKUP(D372,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G372" t="e">
+      <c r="G372" t="str">
         <f>VLOOKUP(A372,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
@@ -41931,9 +41975,9 @@
         <f>VLOOKUP(D377,name_map!$A$2:$D$32,3,0)</f>
         <v>Thép</v>
       </c>
-      <c r="G377" t="e">
+      <c r="G377" t="str">
         <f>VLOOKUP(A377,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
@@ -42018,9 +42062,9 @@
         <f>VLOOKUP(D380,name_map!$A$2:$D$32,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
-      <c r="G380" t="e">
+      <c r="G380" t="str">
         <f>VLOOKUP(A380,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
@@ -42076,9 +42120,9 @@
         <f>VLOOKUP(D382,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G382" t="e">
+      <c r="G382" t="str">
         <f>VLOOKUP(A382,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
@@ -42162,9 +42206,9 @@
         <f>VLOOKUP(D385,name_map!$A$2:$D$32,3,0)</f>
         <v>Dầu khí</v>
       </c>
-      <c r="G385" t="e">
+      <c r="G385" t="str">
         <f>VLOOKUP(A385,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
@@ -42191,9 +42235,9 @@
         <f>VLOOKUP(D386,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G386" t="e">
+      <c r="G386" t="str">
         <f>VLOOKUP(A386,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
@@ -42336,9 +42380,9 @@
         <f>VLOOKUP(D391,name_map!$A$2:$D$32,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
-      <c r="G391" t="e">
+      <c r="G391" t="str">
         <f>VLOOKUP(A391,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
@@ -42394,9 +42438,9 @@
         <f>VLOOKUP(D393,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G393" t="e">
+      <c r="G393" t="str">
         <f>VLOOKUP(A393,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -42423,9 +42467,9 @@
         <f>VLOOKUP(D394,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghiệp</v>
       </c>
-      <c r="G394" t="e">
+      <c r="G394" t="str">
         <f>VLOOKUP(A394,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
@@ -42481,9 +42525,9 @@
         <f>VLOOKUP(D396,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G396" t="e">
+      <c r="G396" t="str">
         <f>VLOOKUP(A396,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
@@ -42510,9 +42554,9 @@
         <f>VLOOKUP(D397,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G397" t="e">
+      <c r="G397" t="str">
         <f>VLOOKUP(A397,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
@@ -42539,9 +42583,9 @@
         <f>VLOOKUP(D398,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G398" t="e">
+      <c r="G398" t="str">
         <f>VLOOKUP(A398,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
@@ -42742,9 +42786,9 @@
         <f>VLOOKUP(D405,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G405" t="e">
+      <c r="G405" t="str">
         <f>VLOOKUP(A405,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
@@ -42916,9 +42960,9 @@
         <f>VLOOKUP(D411,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G411" t="e">
+      <c r="G411" t="str">
         <f>VLOOKUP(A411,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -42945,9 +42989,9 @@
         <f>VLOOKUP(D412,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G412" t="e">
+      <c r="G412" t="str">
         <f>VLOOKUP(A412,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
@@ -43003,9 +43047,9 @@
         <f>VLOOKUP(D414,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghiệp</v>
       </c>
-      <c r="G414" t="e">
+      <c r="G414" t="str">
         <f>VLOOKUP(A414,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
@@ -43177,9 +43221,9 @@
         <f>VLOOKUP(D420,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G420" t="e">
+      <c r="G420" t="str">
         <f>VLOOKUP(A420,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
@@ -43206,9 +43250,9 @@
         <f>VLOOKUP(D421,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G421" t="e">
+      <c r="G421" t="str">
         <f>VLOOKUP(A421,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -43235,9 +43279,9 @@
         <f>VLOOKUP(D422,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G422" t="e">
+      <c r="G422" t="str">
         <f>VLOOKUP(A422,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
@@ -43438,9 +43482,9 @@
         <f>VLOOKUP(D429,name_map!$A$2:$D$32,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
-      <c r="G429" t="e">
+      <c r="G429" t="str">
         <f>VLOOKUP(A429,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
@@ -43612,9 +43656,9 @@
         <f>VLOOKUP(D435,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G435" t="e">
+      <c r="G435" t="str">
         <f>VLOOKUP(A435,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
@@ -43786,9 +43830,9 @@
         <f>VLOOKUP(D441,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G441" t="e">
+      <c r="G441" t="str">
         <f>VLOOKUP(A441,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -43844,9 +43888,9 @@
         <f>VLOOKUP(D443,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G443" t="e">
+      <c r="G443" t="str">
         <f>VLOOKUP(A443,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -43873,9 +43917,9 @@
         <f>VLOOKUP(D444,name_map!$A$2:$D$32,3,0)</f>
         <v>Khoáng sản</v>
       </c>
-      <c r="G444" t="e">
+      <c r="G444" t="str">
         <f>VLOOKUP(A444,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
@@ -43960,9 +44004,9 @@
         <f>VLOOKUP(D447,name_map!$A$2:$D$32,3,0)</f>
         <v>Bán lẻ</v>
       </c>
-      <c r="G447" t="e">
+      <c r="G447" t="str">
         <f>VLOOKUP(A447,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
@@ -43989,9 +44033,9 @@
         <f>VLOOKUP(D448,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G448" t="e">
+      <c r="G448" t="str">
         <f>VLOOKUP(A448,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
@@ -44047,9 +44091,9 @@
         <f>VLOOKUP(D450,name_map!$A$2:$D$32,3,0)</f>
         <v>Dầu khí</v>
       </c>
-      <c r="G450" t="e">
+      <c r="G450" t="str">
         <f>VLOOKUP(A450,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
@@ -44163,9 +44207,9 @@
         <f>VLOOKUP(D454,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G454" t="e">
+      <c r="G454" t="str">
         <f>VLOOKUP(A454,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
@@ -44366,9 +44410,9 @@
         <f>VLOOKUP(D461,name_map!$A$2:$D$32,3,0)</f>
         <v>Hoá chất</v>
       </c>
-      <c r="G461" t="e">
+      <c r="G461" t="str">
         <f>VLOOKUP(A461,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
@@ -44482,9 +44526,9 @@
         <f>VLOOKUP(D465,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G465" t="e">
+      <c r="G465" t="str">
         <f>VLOOKUP(A465,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
@@ -44598,9 +44642,9 @@
         <f>VLOOKUP(D469,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G469" t="e">
+      <c r="G469" t="str">
         <f>VLOOKUP(A469,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
@@ -44685,9 +44729,9 @@
         <f>VLOOKUP(D472,name_map!$A$2:$D$32,3,0)</f>
         <v>Khoáng sản</v>
       </c>
-      <c r="G472" t="e">
+      <c r="G472" t="str">
         <f>VLOOKUP(A472,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
@@ -44774,7 +44818,7 @@
       </c>
       <c r="G475" t="str">
         <f>VLOOKUP(A475,signal_stock!$A:$B,2,0)</f>
-        <v>o</v>
+        <v>x</v>
       </c>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
@@ -44830,9 +44874,9 @@
         <f>VLOOKUP(D477,name_map!$A$2:$D$32,3,0)</f>
         <v>Ngân hàng</v>
       </c>
-      <c r="G477" t="e">
+      <c r="G477" t="str">
         <f>VLOOKUP(A477,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
@@ -44917,9 +44961,9 @@
         <f>VLOOKUP(D480,name_map!$A$2:$D$32,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
-      <c r="G480" t="e">
+      <c r="G480" t="str">
         <f>VLOOKUP(A480,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
@@ -45120,9 +45164,9 @@
         <f>VLOOKUP(D487,name_map!$A$2:$D$32,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
-      <c r="G487" t="e">
+      <c r="G487" t="str">
         <f>VLOOKUP(A487,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
@@ -45149,9 +45193,9 @@
         <f>VLOOKUP(D488,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G488" t="e">
+      <c r="G488" t="str">
         <f>VLOOKUP(A488,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
@@ -45178,9 +45222,9 @@
         <f>VLOOKUP(D489,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G489" t="e">
+      <c r="G489" t="str">
         <f>VLOOKUP(A489,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
@@ -45207,9 +45251,9 @@
         <f>VLOOKUP(D490,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G490" t="e">
+      <c r="G490" t="str">
         <f>VLOOKUP(A490,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
@@ -45265,9 +45309,9 @@
         <f>VLOOKUP(D492,name_map!$A$2:$D$32,3,0)</f>
         <v>Thép</v>
       </c>
-      <c r="G492" t="e">
+      <c r="G492" t="str">
         <f>VLOOKUP(A492,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
@@ -45468,9 +45512,9 @@
         <f>VLOOKUP(D499,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G499" t="e">
+      <c r="G499" t="str">
         <f>VLOOKUP(A499,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
@@ -45555,9 +45599,9 @@
         <f>VLOOKUP(D502,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G502" t="e">
+      <c r="G502" t="str">
         <f>VLOOKUP(A502,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
@@ -45787,9 +45831,9 @@
         <f>VLOOKUP(D510,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghệ</v>
       </c>
-      <c r="G510" t="e">
+      <c r="G510" t="str">
         <f>VLOOKUP(A510,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
@@ -46106,9 +46150,9 @@
         <f>VLOOKUP(D521,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G521" t="e">
+      <c r="G521" t="str">
         <f>VLOOKUP(A521,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
@@ -46193,9 +46237,9 @@
         <f>VLOOKUP(D524,name_map!$A$2:$D$32,3,0)</f>
         <v>Khoáng sản</v>
       </c>
-      <c r="G524" t="e">
+      <c r="G524" t="str">
         <f>VLOOKUP(A524,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
@@ -46251,9 +46295,9 @@
         <f>VLOOKUP(D526,name_map!$A$2:$D$32,3,0)</f>
         <v>Hàng tiêu dùng</v>
       </c>
-      <c r="G526" t="e">
+      <c r="G526" t="str">
         <f>VLOOKUP(A526,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
@@ -46280,9 +46324,9 @@
         <f>VLOOKUP(D527,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G527" t="e">
+      <c r="G527" t="str">
         <f>VLOOKUP(A527,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
@@ -46367,9 +46411,9 @@
         <f>VLOOKUP(D530,name_map!$A$2:$D$32,3,0)</f>
         <v>Hoá chất</v>
       </c>
-      <c r="G530" t="e">
+      <c r="G530" t="str">
         <f>VLOOKUP(A530,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
@@ -46454,9 +46498,9 @@
         <f>VLOOKUP(D533,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G533" t="e">
+      <c r="G533" t="str">
         <f>VLOOKUP(A533,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
@@ -46541,9 +46585,9 @@
         <f>VLOOKUP(D536,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G536" t="e">
+      <c r="G536" t="str">
         <f>VLOOKUP(A536,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
@@ -46570,9 +46614,9 @@
         <f>VLOOKUP(D537,name_map!$A$2:$D$32,3,0)</f>
         <v>Chứng khoán</v>
       </c>
-      <c r="G537" t="e">
+      <c r="G537" t="str">
         <f>VLOOKUP(A537,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
@@ -46715,9 +46759,9 @@
         <f>VLOOKUP(D542,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G542" t="e">
+      <c r="G542" t="str">
         <f>VLOOKUP(A542,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
@@ -46744,9 +46788,9 @@
         <f>VLOOKUP(D543,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G543" t="e">
+      <c r="G543" t="str">
         <f>VLOOKUP(A543,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
@@ -46947,9 +46991,9 @@
         <f>VLOOKUP(D550,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghệ</v>
       </c>
-      <c r="G550" t="e">
+      <c r="G550" t="str">
         <f>VLOOKUP(A550,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
@@ -47034,9 +47078,9 @@
         <f>VLOOKUP(D553,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G553" t="e">
+      <c r="G553" t="str">
         <f>VLOOKUP(A553,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
@@ -47121,9 +47165,9 @@
         <f>VLOOKUP(D556,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G556" t="e">
+      <c r="G556" t="str">
         <f>VLOOKUP(A556,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
@@ -47208,9 +47252,9 @@
         <f>VLOOKUP(D559,name_map!$A$2:$D$32,3,0)</f>
         <v>Dệt may</v>
       </c>
-      <c r="G559" t="e">
+      <c r="G559" t="str">
         <f>VLOOKUP(A559,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
@@ -47382,9 +47426,9 @@
         <f>VLOOKUP(D565,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G565" t="e">
+      <c r="G565" t="str">
         <f>VLOOKUP(A565,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
@@ -47411,9 +47455,9 @@
         <f>VLOOKUP(D566,name_map!$A$2:$D$32,3,0)</f>
         <v>Ngân hàng</v>
       </c>
-      <c r="G566" t="e">
+      <c r="G566" t="str">
         <f>VLOOKUP(A566,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
@@ -47440,9 +47484,9 @@
         <f>VLOOKUP(D567,name_map!$A$2:$D$32,3,0)</f>
         <v>Thuỷ sản</v>
       </c>
-      <c r="G567" t="e">
+      <c r="G567" t="str">
         <f>VLOOKUP(A567,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
@@ -47701,9 +47745,9 @@
         <f>VLOOKUP(D576,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G576" t="e">
+      <c r="G576" t="str">
         <f>VLOOKUP(A576,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
@@ -47730,9 +47774,9 @@
         <f>VLOOKUP(D577,name_map!$A$2:$D$32,3,0)</f>
         <v>Ngân hàng</v>
       </c>
-      <c r="G577" t="e">
+      <c r="G577" t="str">
         <f>VLOOKUP(A577,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
@@ -47817,9 +47861,9 @@
         <f>VLOOKUP(D580,name_map!$A$2:$D$32,3,0)</f>
         <v>Chứng khoán</v>
       </c>
-      <c r="G580" t="e">
+      <c r="G580" t="str">
         <f>VLOOKUP(A580,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
@@ -47875,9 +47919,9 @@
         <f>VLOOKUP(D582,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G582" t="e">
+      <c r="G582" t="str">
         <f>VLOOKUP(A582,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
@@ -48020,9 +48064,9 @@
         <f>VLOOKUP(D587,name_map!$A$2:$D$32,3,0)</f>
         <v>Vận tải</v>
       </c>
-      <c r="G587" t="e">
+      <c r="G587" t="str">
         <f>VLOOKUP(A587,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
@@ -48049,9 +48093,9 @@
         <f>VLOOKUP(D588,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G588" t="e">
+      <c r="G588" t="str">
         <f>VLOOKUP(A588,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
@@ -48136,9 +48180,9 @@
         <f>VLOOKUP(D591,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G591" t="e">
+      <c r="G591" t="str">
         <f>VLOOKUP(A591,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
@@ -48339,9 +48383,9 @@
         <f>VLOOKUP(D598,name_map!$A$2:$D$32,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
-      <c r="G598" t="e">
+      <c r="G598" t="str">
         <f>VLOOKUP(A598,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
@@ -48426,9 +48470,9 @@
         <f>VLOOKUP(D601,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G601" t="e">
+      <c r="G601" t="str">
         <f>VLOOKUP(A601,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
@@ -48455,9 +48499,9 @@
         <f>VLOOKUP(D602,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G602" t="e">
+      <c r="G602" t="str">
         <f>VLOOKUP(A602,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
@@ -48484,9 +48528,9 @@
         <f>VLOOKUP(D603,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghiệp</v>
       </c>
-      <c r="G603" t="e">
+      <c r="G603" t="str">
         <f>VLOOKUP(A603,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
@@ -48542,9 +48586,9 @@
         <f>VLOOKUP(D605,name_map!$A$2:$D$32,3,0)</f>
         <v>Du lịch và DV</v>
       </c>
-      <c r="G605" t="e">
+      <c r="G605" t="str">
         <f>VLOOKUP(A605,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
@@ -48600,9 +48644,9 @@
         <f>VLOOKUP(D607,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G607" t="e">
+      <c r="G607" t="str">
         <f>VLOOKUP(A607,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
@@ -48629,9 +48673,9 @@
         <f>VLOOKUP(D608,name_map!$A$2:$D$32,3,0)</f>
         <v>Thực phẩm</v>
       </c>
-      <c r="G608" t="e">
+      <c r="G608" t="str">
         <f>VLOOKUP(A608,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
@@ -48745,9 +48789,9 @@
         <f>VLOOKUP(D612,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghiệp</v>
       </c>
-      <c r="G612" t="e">
+      <c r="G612" t="str">
         <f>VLOOKUP(A612,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
@@ -48977,9 +49021,9 @@
         <f>VLOOKUP(D620,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G620" t="e">
+      <c r="G620" t="str">
         <f>VLOOKUP(A620,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
@@ -49035,9 +49079,9 @@
         <f>VLOOKUP(D622,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G622" t="e">
+      <c r="G622" t="str">
         <f>VLOOKUP(A622,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
@@ -49093,9 +49137,9 @@
         <f>VLOOKUP(D624,name_map!$A$2:$D$32,3,0)</f>
         <v>Công nghệ</v>
       </c>
-      <c r="G624" t="e">
+      <c r="G624" t="str">
         <f>VLOOKUP(A624,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
@@ -49180,9 +49224,9 @@
         <f>VLOOKUP(D627,name_map!$A$2:$D$32,3,0)</f>
         <v>Hoá chất</v>
       </c>
-      <c r="G627" t="e">
+      <c r="G627" t="str">
         <f>VLOOKUP(A627,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
@@ -49209,9 +49253,9 @@
         <f>VLOOKUP(D628,name_map!$A$2:$D$32,3,0)</f>
         <v>Bất động sản</v>
       </c>
-      <c r="G628" t="e">
+      <c r="G628" t="str">
         <f>VLOOKUP(A628,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
@@ -49470,9 +49514,9 @@
         <f>VLOOKUP(D637,name_map!$A$2:$D$32,3,0)</f>
         <v>Khoáng sản</v>
       </c>
-      <c r="G637" t="e">
+      <c r="G637" t="str">
         <f>VLOOKUP(A637,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
@@ -49615,9 +49659,9 @@
         <f>VLOOKUP(D642,name_map!$A$2:$D$32,3,0)</f>
         <v>Công ty tài chính</v>
       </c>
-      <c r="G642" t="e">
+      <c r="G642" t="str">
         <f>VLOOKUP(A642,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
@@ -81679,10 +81723,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD58B990-4E93-4226-B2C3-FA35F0465DC7}">
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:B496"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O280" sqref="O280"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81769,7 +81813,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>173</v>
       </c>
       <c r="B11" t="s">
         <v>1758</v>
@@ -81777,7 +81821,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>271</v>
       </c>
       <c r="B12" t="s">
         <v>1758</v>
@@ -81785,7 +81829,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>271</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>1758</v>
@@ -81793,7 +81837,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>294</v>
       </c>
       <c r="B14" t="s">
         <v>1758</v>
@@ -81801,7 +81845,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>185</v>
       </c>
       <c r="B15" t="s">
         <v>1758</v>
@@ -81809,7 +81853,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
         <v>1758</v>
@@ -81817,7 +81861,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>351</v>
       </c>
       <c r="B17" t="s">
         <v>1758</v>
@@ -81825,7 +81869,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>351</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
         <v>1758</v>
@@ -81833,7 +81877,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>519</v>
       </c>
       <c r="B19" t="s">
         <v>1758</v>
@@ -81841,7 +81885,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>519</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
         <v>1758</v>
@@ -81849,7 +81893,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
         <v>1758</v>
@@ -81857,7 +81901,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>622</v>
       </c>
       <c r="B22" t="s">
         <v>1758</v>
@@ -81865,7 +81909,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>622</v>
+        <v>492</v>
       </c>
       <c r="B23" t="s">
         <v>1758</v>
@@ -81873,7 +81917,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>492</v>
+        <v>367</v>
       </c>
       <c r="B24" t="s">
         <v>1758</v>
@@ -81881,7 +81925,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>367</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
         <v>1758</v>
@@ -81889,7 +81933,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>1758</v>
@@ -81897,7 +81941,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
         <v>1758</v>
@@ -81905,7 +81949,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>295</v>
       </c>
       <c r="B28" t="s">
         <v>1758</v>
@@ -81913,7 +81957,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s">
         <v>1758</v>
@@ -81921,7 +81965,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
         <v>1758</v>
@@ -81929,7 +81973,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
         <v>1758</v>
@@ -81937,7 +81981,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>522</v>
       </c>
       <c r="B32" t="s">
         <v>1758</v>
@@ -81945,7 +81989,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="B33" t="s">
         <v>1758</v>
@@ -81953,7 +81997,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>608</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
         <v>1758</v>
@@ -81961,7 +82005,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="B35" t="s">
         <v>1758</v>
@@ -81969,7 +82013,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
         <v>1758</v>
@@ -81977,7 +82021,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>397</v>
       </c>
       <c r="B37" t="s">
         <v>1758</v>
@@ -81985,7 +82029,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>1758</v>
@@ -81993,7 +82037,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>558</v>
       </c>
       <c r="B39" t="s">
         <v>1758</v>
@@ -82001,7 +82045,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>558</v>
+        <v>376</v>
       </c>
       <c r="B40" t="s">
         <v>1758</v>
@@ -82009,7 +82053,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>376</v>
+        <v>263</v>
       </c>
       <c r="B41" t="s">
         <v>1758</v>
@@ -82017,7 +82061,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>263</v>
+        <v>401</v>
       </c>
       <c r="B42" t="s">
         <v>1758</v>
@@ -82025,7 +82069,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>401</v>
+        <v>609</v>
       </c>
       <c r="B43" t="s">
         <v>1758</v>
@@ -82033,7 +82077,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>609</v>
+        <v>170</v>
       </c>
       <c r="B44" t="s">
         <v>1758</v>
@@ -82041,7 +82085,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="B45" t="s">
         <v>1758</v>
@@ -82049,7 +82093,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="B46" t="s">
         <v>1758</v>
@@ -82057,7 +82101,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
         <v>1758</v>
@@ -82065,7 +82109,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>126</v>
+        <v>498</v>
       </c>
       <c r="B48" t="s">
         <v>1758</v>
@@ -82073,7 +82117,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B49" t="s">
         <v>1758</v>
@@ -82081,7 +82125,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>497</v>
+        <v>122</v>
       </c>
       <c r="B50" t="s">
         <v>1758</v>
@@ -82089,7 +82133,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>277</v>
       </c>
       <c r="B51" t="s">
         <v>1758</v>
@@ -82097,7 +82141,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>277</v>
+        <v>618</v>
       </c>
       <c r="B52" t="s">
         <v>1758</v>
@@ -82105,7 +82149,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>618</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
         <v>1758</v>
@@ -82113,7 +82157,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>437</v>
       </c>
       <c r="B54" t="s">
         <v>1758</v>
@@ -82121,7 +82165,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="B55" t="s">
         <v>1758</v>
@@ -82129,7 +82173,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>487</v>
+        <v>131</v>
       </c>
       <c r="B56" t="s">
         <v>1758</v>
@@ -82137,7 +82181,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>501</v>
       </c>
       <c r="B57" t="s">
         <v>1758</v>
@@ -82145,7 +82189,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>501</v>
+        <v>143</v>
       </c>
       <c r="B58" t="s">
         <v>1758</v>
@@ -82153,7 +82197,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>324</v>
       </c>
       <c r="B59" t="s">
         <v>1758</v>
@@ -82161,7 +82205,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="B60" t="s">
         <v>1758</v>
@@ -82169,7 +82213,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>384</v>
+        <v>606</v>
       </c>
       <c r="B61" t="s">
         <v>1758</v>
@@ -82177,7 +82221,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>606</v>
+        <v>551</v>
       </c>
       <c r="B62" t="s">
         <v>1758</v>
@@ -82185,7 +82229,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="B63" t="s">
         <v>1758</v>
@@ -82193,7 +82237,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>615</v>
+        <v>559</v>
       </c>
       <c r="B64" t="s">
         <v>1758</v>
@@ -82201,7 +82245,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>559</v>
+        <v>392</v>
       </c>
       <c r="B65" t="s">
         <v>1758</v>
@@ -82209,7 +82253,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="B66" t="s">
         <v>1758</v>
@@ -82217,7 +82261,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>41</v>
+        <v>449</v>
       </c>
       <c r="B67" t="s">
         <v>1758</v>
@@ -82225,7 +82269,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="B68" t="s">
         <v>1758</v>
@@ -82233,7 +82277,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>511</v>
+        <v>398</v>
       </c>
       <c r="B69" t="s">
         <v>1758</v>
@@ -82241,7 +82285,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>398</v>
+        <v>575</v>
       </c>
       <c r="B70" t="s">
         <v>1758</v>
@@ -82249,7 +82293,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>575</v>
+        <v>12</v>
       </c>
       <c r="B71" t="s">
         <v>1758</v>
@@ -82257,7 +82301,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>12</v>
+        <v>462</v>
       </c>
       <c r="B72" t="s">
         <v>1758</v>
@@ -82265,7 +82309,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>462</v>
+        <v>537</v>
       </c>
       <c r="B73" t="s">
         <v>1758</v>
@@ -82273,7 +82317,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>537</v>
+        <v>227</v>
       </c>
       <c r="B74" t="s">
         <v>1758</v>
@@ -82281,7 +82325,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>227</v>
+        <v>613</v>
       </c>
       <c r="B75" t="s">
         <v>1758</v>
@@ -82289,7 +82333,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>613</v>
+        <v>234</v>
       </c>
       <c r="B76" t="s">
         <v>1758</v>
@@ -82297,7 +82341,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="B77" t="s">
         <v>1758</v>
@@ -82305,7 +82349,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="B78" t="s">
         <v>1758</v>
@@ -82313,7 +82357,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>14</v>
+        <v>599</v>
       </c>
       <c r="B79" t="s">
         <v>1758</v>
@@ -82321,7 +82365,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>599</v>
+        <v>400</v>
       </c>
       <c r="B80" t="s">
         <v>1758</v>
@@ -82329,7 +82373,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="B81" t="s">
         <v>1758</v>
@@ -82337,7 +82381,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="B82" t="s">
         <v>1758</v>
@@ -82345,7 +82389,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="B83" t="s">
         <v>1758</v>
@@ -82353,7 +82397,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B84" t="s">
         <v>1758</v>
@@ -82361,7 +82405,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
         <v>1758</v>
@@ -82369,7 +82413,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B86" t="s">
         <v>1758</v>
@@ -82377,7 +82421,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="B87" t="s">
         <v>1758</v>
@@ -82385,7 +82429,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>171</v>
+        <v>406</v>
       </c>
       <c r="B88" t="s">
         <v>1758</v>
@@ -82393,7 +82437,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="B89" t="s">
         <v>1758</v>
@@ -82401,7 +82445,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="B90" t="s">
         <v>1758</v>
@@ -82409,7 +82453,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>500</v>
+        <v>39</v>
       </c>
       <c r="B91" t="s">
         <v>1758</v>
@@ -82417,7 +82461,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>383</v>
       </c>
       <c r="B92" t="s">
         <v>1758</v>
@@ -82425,7 +82469,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="B93" t="s">
         <v>1758</v>
@@ -82433,7 +82477,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>416</v>
+        <v>167</v>
       </c>
       <c r="B94" t="s">
         <v>1758</v>
@@ -82441,7 +82485,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="B95" t="s">
         <v>1758</v>
@@ -82449,23 +82493,23 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="B96" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>309</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1758</v>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>451</v>
+        <v>77</v>
       </c>
       <c r="B99" t="s">
         <v>1757</v>
@@ -82473,7 +82517,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>340</v>
+        <v>314</v>
       </c>
       <c r="B100" t="s">
         <v>1757</v>
@@ -82481,7 +82525,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>627</v>
+        <v>175</v>
       </c>
       <c r="B101" t="s">
         <v>1757</v>
@@ -82489,7 +82533,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>459</v>
+        <v>330</v>
       </c>
       <c r="B102" t="s">
         <v>1757</v>
@@ -82497,7 +82541,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>268</v>
+        <v>210</v>
       </c>
       <c r="B103" t="s">
         <v>1757</v>
@@ -82505,7 +82549,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>168</v>
       </c>
       <c r="B104" t="s">
         <v>1757</v>
@@ -82513,7 +82557,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>399</v>
+        <v>69</v>
       </c>
       <c r="B105" t="s">
         <v>1757</v>
@@ -82521,7 +82565,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>103</v>
+        <v>541</v>
       </c>
       <c r="B106" t="s">
         <v>1757</v>
@@ -82529,7 +82573,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>363</v>
+        <v>1378</v>
       </c>
       <c r="B107" t="s">
         <v>1757</v>
@@ -82537,7 +82581,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>334</v>
+        <v>144</v>
       </c>
       <c r="B108" t="s">
         <v>1757</v>
@@ -82545,7 +82589,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>488</v>
+        <v>1750</v>
       </c>
       <c r="B109" t="s">
         <v>1757</v>
@@ -82553,7 +82597,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B110" t="s">
         <v>1757</v>
@@ -82561,7 +82605,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>200</v>
+        <v>93</v>
       </c>
       <c r="B111" t="s">
         <v>1757</v>
@@ -82569,7 +82613,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="B112" t="s">
         <v>1757</v>
@@ -82577,7 +82621,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B113" t="s">
         <v>1757</v>
@@ -82585,7 +82629,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>257</v>
+        <v>571</v>
       </c>
       <c r="B114" t="s">
         <v>1757</v>
@@ -82593,7 +82637,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>260</v>
+        <v>159</v>
       </c>
       <c r="B115" t="s">
         <v>1757</v>
@@ -82601,7 +82645,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>623</v>
+        <v>1746</v>
       </c>
       <c r="B116" t="s">
         <v>1757</v>
@@ -82609,7 +82653,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>96</v>
+        <v>146</v>
       </c>
       <c r="B117" t="s">
         <v>1757</v>
@@ -82617,7 +82661,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>182</v>
+        <v>232</v>
       </c>
       <c r="B118" t="s">
         <v>1757</v>
@@ -82625,7 +82669,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>195</v>
+        <v>84</v>
       </c>
       <c r="B119" t="s">
         <v>1757</v>
@@ -82633,7 +82677,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>287</v>
+        <v>26</v>
       </c>
       <c r="B120" t="s">
         <v>1757</v>
@@ -82641,7 +82685,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>18</v>
+        <v>505</v>
       </c>
       <c r="B121" t="s">
         <v>1757</v>
@@ -82649,7 +82693,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>275</v>
+        <v>2</v>
       </c>
       <c r="B122" t="s">
         <v>1757</v>
@@ -82657,7 +82701,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B123" t="s">
         <v>1757</v>
@@ -82665,7 +82709,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>493</v>
+        <v>337</v>
       </c>
       <c r="B124" t="s">
         <v>1757</v>
@@ -82673,7 +82717,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>270</v>
+        <v>372</v>
       </c>
       <c r="B125" t="s">
         <v>1757</v>
@@ -82681,7 +82725,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="B126" t="s">
         <v>1757</v>
@@ -82689,7 +82733,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>446</v>
+        <v>57</v>
       </c>
       <c r="B127" t="s">
         <v>1757</v>
@@ -82697,7 +82741,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B128" t="s">
         <v>1757</v>
@@ -82705,7 +82749,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>72</v>
+        <v>353</v>
       </c>
       <c r="B129" t="s">
         <v>1757</v>
@@ -82713,7 +82757,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>141</v>
+        <v>291</v>
       </c>
       <c r="B130" t="s">
         <v>1757</v>
@@ -82721,7 +82765,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>283</v>
+        <v>467</v>
       </c>
       <c r="B131" t="s">
         <v>1757</v>
@@ -82729,7 +82773,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>33</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
         <v>1757</v>
@@ -82737,7 +82781,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>305</v>
+        <v>85</v>
       </c>
       <c r="B133" t="s">
         <v>1757</v>
@@ -82745,7 +82789,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>164</v>
+        <v>521</v>
       </c>
       <c r="B134" t="s">
         <v>1757</v>
@@ -82753,7 +82797,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>177</v>
+        <v>375</v>
       </c>
       <c r="B135" t="s">
         <v>1757</v>
@@ -82761,7 +82805,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="B136" t="s">
         <v>1757</v>
@@ -82769,7 +82813,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>393</v>
+        <v>298</v>
       </c>
       <c r="B137" t="s">
         <v>1757</v>
@@ -82777,7 +82821,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>59</v>
+        <v>208</v>
       </c>
       <c r="B138" t="s">
         <v>1757</v>
@@ -82785,7 +82829,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>31</v>
+        <v>491</v>
       </c>
       <c r="B139" t="s">
         <v>1757</v>
@@ -82793,7 +82837,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>304</v>
+        <v>555</v>
       </c>
       <c r="B140" t="s">
         <v>1757</v>
@@ -82801,7 +82845,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>53</v>
+        <v>545</v>
       </c>
       <c r="B141" t="s">
         <v>1757</v>
@@ -82809,7 +82853,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>612</v>
+        <v>313</v>
       </c>
       <c r="B142" t="s">
         <v>1757</v>
@@ -82817,7 +82861,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>156</v>
+        <v>32</v>
       </c>
       <c r="B143" t="s">
         <v>1757</v>
@@ -82825,7 +82869,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>203</v>
+        <v>349</v>
       </c>
       <c r="B144" t="s">
         <v>1757</v>
@@ -82833,7 +82877,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>191</v>
+        <v>568</v>
       </c>
       <c r="B145" t="s">
         <v>1757</v>
@@ -82841,7 +82885,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>333</v>
       </c>
       <c r="B146" t="s">
         <v>1757</v>
@@ -82849,7 +82893,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>331</v>
+        <v>1223</v>
       </c>
       <c r="B147" t="s">
         <v>1757</v>
@@ -82857,7 +82901,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>527</v>
+        <v>201</v>
       </c>
       <c r="B148" t="s">
         <v>1757</v>
@@ -82865,7 +82909,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>593</v>
+        <v>528</v>
       </c>
       <c r="B149" t="s">
         <v>1757</v>
@@ -82873,7 +82917,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="B150" t="s">
         <v>1757</v>
@@ -82881,7 +82925,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>592</v>
+        <v>132</v>
       </c>
       <c r="B151" t="s">
         <v>1757</v>
@@ -82889,7 +82933,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>50</v>
+        <v>273</v>
       </c>
       <c r="B152" t="s">
         <v>1757</v>
@@ -82897,7 +82941,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>389</v>
+        <v>1328</v>
       </c>
       <c r="B153" t="s">
         <v>1757</v>
@@ -82905,7 +82949,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>604</v>
+        <v>385</v>
       </c>
       <c r="B154" t="s">
         <v>1757</v>
@@ -82913,7 +82957,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>617</v>
+        <v>516</v>
       </c>
       <c r="B155" t="s">
         <v>1757</v>
@@ -82921,7 +82965,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>276</v>
+        <v>381</v>
       </c>
       <c r="B156" t="s">
         <v>1757</v>
@@ -82929,7 +82973,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>297</v>
+        <v>339</v>
       </c>
       <c r="B157" t="s">
         <v>1757</v>
@@ -82937,7 +82981,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>509</v>
+        <v>544</v>
       </c>
       <c r="B158" t="s">
         <v>1757</v>
@@ -82945,7 +82989,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B159" t="s">
         <v>1757</v>
@@ -82953,7 +82997,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>97</v>
+        <v>476</v>
       </c>
       <c r="B160" t="s">
         <v>1757</v>
@@ -82961,7 +83005,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>306</v>
+        <v>533</v>
       </c>
       <c r="B161" t="s">
         <v>1757</v>
@@ -82969,7 +83013,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>327</v>
+        <v>48</v>
       </c>
       <c r="B162" t="s">
         <v>1757</v>
@@ -82977,7 +83021,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>601</v>
+        <v>414</v>
       </c>
       <c r="B163" t="s">
         <v>1757</v>
@@ -82985,7 +83029,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>316</v>
+        <v>543</v>
       </c>
       <c r="B164" t="s">
         <v>1757</v>
@@ -82993,7 +83037,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>620</v>
+        <v>99</v>
       </c>
       <c r="B165" t="s">
         <v>1757</v>
@@ -83001,7 +83045,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>554</v>
+        <v>236</v>
       </c>
       <c r="B166" t="s">
         <v>1757</v>
@@ -83009,7 +83053,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>391</v>
+        <v>81</v>
       </c>
       <c r="B167" t="s">
         <v>1757</v>
@@ -83017,7 +83061,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>289</v>
+        <v>529</v>
       </c>
       <c r="B168" t="s">
         <v>1757</v>
@@ -83025,7 +83069,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>230</v>
+        <v>431</v>
       </c>
       <c r="B169" t="s">
         <v>1757</v>
@@ -83033,7 +83077,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B170" t="s">
         <v>1757</v>
@@ -83041,7 +83085,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>300</v>
+        <v>1749</v>
       </c>
       <c r="B171" t="s">
         <v>1757</v>
@@ -83049,7 +83093,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>114</v>
+        <v>427</v>
       </c>
       <c r="B172" t="s">
         <v>1757</v>
@@ -83057,7 +83101,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>19</v>
+        <v>1393</v>
       </c>
       <c r="B173" t="s">
         <v>1757</v>
@@ -83065,7 +83109,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="B174" t="s">
         <v>1757</v>
@@ -83073,7 +83117,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="B175" t="s">
         <v>1757</v>
@@ -83081,7 +83125,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>584</v>
+        <v>157</v>
       </c>
       <c r="B176" t="s">
         <v>1757</v>
@@ -83089,7 +83133,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>29</v>
+        <v>404</v>
       </c>
       <c r="B177" t="s">
         <v>1757</v>
@@ -83097,7 +83141,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="B178" t="s">
         <v>1757</v>
@@ -83105,7 +83149,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>499</v>
+        <v>42</v>
       </c>
       <c r="B179" t="s">
         <v>1757</v>
@@ -83113,7 +83157,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="B180" t="s">
         <v>1757</v>
@@ -83121,7 +83165,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>299</v>
+        <v>5</v>
       </c>
       <c r="B181" t="s">
         <v>1757</v>
@@ -83129,7 +83173,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>217</v>
+        <v>512</v>
       </c>
       <c r="B182" t="s">
         <v>1757</v>
@@ -83137,7 +83181,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>413</v>
+        <v>147</v>
       </c>
       <c r="B183" t="s">
         <v>1757</v>
@@ -83145,7 +83189,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B184" t="s">
         <v>1757</v>
@@ -83153,7 +83197,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
       <c r="B185" t="s">
         <v>1757</v>
@@ -83161,7 +83205,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>187</v>
+        <v>523</v>
       </c>
       <c r="B186" t="s">
         <v>1757</v>
@@ -83169,7 +83213,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>357</v>
+        <v>102</v>
       </c>
       <c r="B187" t="s">
         <v>1757</v>
@@ -83177,7 +83221,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
         <v>1757</v>
@@ -83185,7 +83229,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="B189" t="s">
         <v>1757</v>
@@ -83193,7 +83237,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>436</v>
+        <v>394</v>
       </c>
       <c r="B190" t="s">
         <v>1757</v>
@@ -83201,7 +83245,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>142</v>
+        <v>245</v>
       </c>
       <c r="B191" t="s">
         <v>1757</v>
@@ -83209,7 +83253,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>348</v>
+        <v>484</v>
       </c>
       <c r="B192" t="s">
         <v>1757</v>
@@ -83217,7 +83261,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>250</v>
+        <v>109</v>
       </c>
       <c r="B193" t="s">
         <v>1757</v>
@@ -83225,7 +83269,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B194" t="s">
         <v>1757</v>
@@ -83233,7 +83277,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>112</v>
+        <v>435</v>
       </c>
       <c r="B195" t="s">
         <v>1757</v>
@@ -83241,7 +83285,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>546</v>
+        <v>8</v>
       </c>
       <c r="B196" t="s">
         <v>1757</v>
@@ -83249,7 +83293,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>424</v>
+        <v>1115</v>
       </c>
       <c r="B197" t="s">
         <v>1757</v>
@@ -83257,7 +83301,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>345</v>
+        <v>596</v>
       </c>
       <c r="B198" t="s">
         <v>1757</v>
@@ -83265,7 +83309,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>380</v>
+        <v>94</v>
       </c>
       <c r="B199" t="s">
         <v>1757</v>
@@ -83273,7 +83317,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="B200" t="s">
         <v>1757</v>
@@ -83281,7 +83325,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>379</v>
+        <v>455</v>
       </c>
       <c r="B201" t="s">
         <v>1757</v>
@@ -83289,7 +83333,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>228</v>
+        <v>368</v>
       </c>
       <c r="B202" t="s">
         <v>1757</v>
@@ -83297,7 +83341,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>631</v>
+        <v>1</v>
       </c>
       <c r="B203" t="s">
         <v>1757</v>
@@ -83305,7 +83349,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>356</v>
+        <v>151</v>
       </c>
       <c r="B204" t="s">
         <v>1757</v>
@@ -83313,7 +83357,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>278</v>
+        <v>231</v>
       </c>
       <c r="B205" t="s">
         <v>1757</v>
@@ -83321,7 +83365,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>22</v>
+        <v>153</v>
       </c>
       <c r="B206" t="s">
         <v>1757</v>
@@ -83329,7 +83373,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>594</v>
+        <v>86</v>
       </c>
       <c r="B207" t="s">
         <v>1757</v>
@@ -83337,7 +83381,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>36</v>
+        <v>117</v>
       </c>
       <c r="B208" t="s">
         <v>1757</v>
@@ -83345,7 +83389,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>452</v>
+        <v>579</v>
       </c>
       <c r="B209" t="s">
         <v>1757</v>
@@ -83353,7 +83397,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>246</v>
+        <v>530</v>
       </c>
       <c r="B210" t="s">
         <v>1757</v>
@@ -83361,7 +83405,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>483</v>
+        <v>220</v>
       </c>
       <c r="B211" t="s">
         <v>1757</v>
@@ -83369,7 +83413,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>586</v>
+        <v>312</v>
       </c>
       <c r="B212" t="s">
         <v>1757</v>
@@ -83377,7 +83421,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="B213" t="s">
         <v>1757</v>
@@ -83385,7 +83429,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>137</v>
+        <v>621</v>
       </c>
       <c r="B214" t="s">
         <v>1757</v>
@@ -83393,7 +83437,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>181</v>
+        <v>515</v>
       </c>
       <c r="B215" t="s">
         <v>1757</v>
@@ -83401,7 +83445,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>486</v>
+        <v>377</v>
       </c>
       <c r="B216" t="s">
         <v>1757</v>
@@ -83409,7 +83453,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>395</v>
+        <v>342</v>
       </c>
       <c r="B217" t="s">
         <v>1757</v>
@@ -83417,7 +83461,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>125</v>
+        <v>441</v>
       </c>
       <c r="B218" t="s">
         <v>1757</v>
@@ -83425,7 +83469,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>274</v>
+        <v>163</v>
       </c>
       <c r="B219" t="s">
         <v>1757</v>
@@ -83433,7 +83477,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>547</v>
+        <v>154</v>
       </c>
       <c r="B220" t="s">
         <v>1757</v>
@@ -83441,7 +83485,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>16</v>
+        <v>454</v>
       </c>
       <c r="B221" t="s">
         <v>1757</v>
@@ -83449,7 +83493,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>129</v>
+        <v>430</v>
       </c>
       <c r="B222" t="s">
         <v>1757</v>
@@ -83457,7 +83501,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>347</v>
+        <v>426</v>
       </c>
       <c r="B223" t="s">
         <v>1757</v>
@@ -83465,7 +83509,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>329</v>
+        <v>82</v>
       </c>
       <c r="B224" t="s">
         <v>1757</v>
@@ -83473,7 +83517,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>518</v>
+        <v>563</v>
       </c>
       <c r="B225" t="s">
         <v>1757</v>
@@ -83481,7 +83525,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>567</v>
+        <v>410</v>
       </c>
       <c r="B226" t="s">
         <v>1757</v>
@@ -83489,7 +83533,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>101</v>
+        <v>614</v>
       </c>
       <c r="B227" t="s">
         <v>1757</v>
@@ -83497,7 +83541,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>62</v>
+        <v>358</v>
       </c>
       <c r="B228" t="s">
         <v>1757</v>
@@ -83505,7 +83549,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="B229" t="s">
         <v>1757</v>
@@ -83513,7 +83557,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>152</v>
+        <v>243</v>
       </c>
       <c r="B230" t="s">
         <v>1757</v>
@@ -83521,7 +83565,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>196</v>
+        <v>588</v>
       </c>
       <c r="B231" t="s">
         <v>1757</v>
@@ -83529,7 +83573,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="B232" t="s">
         <v>1757</v>
@@ -83537,7 +83581,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>70</v>
+        <v>396</v>
       </c>
       <c r="B233" t="s">
         <v>1757</v>
@@ -83545,7 +83589,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>466</v>
+        <v>145</v>
       </c>
       <c r="B234" t="s">
         <v>1757</v>
@@ -83553,7 +83597,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>343</v>
+        <v>474</v>
       </c>
       <c r="B235" t="s">
         <v>1757</v>
@@ -83561,7 +83605,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B236" t="s">
         <v>1757</v>
@@ -83569,7 +83613,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>52</v>
+        <v>535</v>
       </c>
       <c r="B237" t="s">
         <v>1757</v>
@@ -83577,7 +83621,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>262</v>
+        <v>165</v>
       </c>
       <c r="B238" t="s">
         <v>1757</v>
@@ -83585,7 +83629,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B239" t="s">
         <v>1757</v>
@@ -83593,7 +83637,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>237</v>
+        <v>1126</v>
       </c>
       <c r="B240" t="s">
         <v>1757</v>
@@ -83601,7 +83645,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>373</v>
+        <v>574</v>
       </c>
       <c r="B241" t="s">
         <v>1757</v>
@@ -83609,7 +83653,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>564</v>
+        <v>336</v>
       </c>
       <c r="B242" t="s">
         <v>1757</v>
@@ -83617,7 +83661,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>71</v>
+        <v>956</v>
       </c>
       <c r="B243" t="s">
         <v>1757</v>
@@ -83625,7 +83669,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>610</v>
+        <v>130</v>
       </c>
       <c r="B244" t="s">
         <v>1757</v>
@@ -83633,7 +83677,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>602</v>
+        <v>507</v>
       </c>
       <c r="B245" t="s">
         <v>1757</v>
@@ -83641,7 +83685,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>360</v>
+        <v>1748</v>
       </c>
       <c r="B246" t="s">
         <v>1757</v>
@@ -83649,7 +83693,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>502</v>
+        <v>241</v>
       </c>
       <c r="B247" t="s">
         <v>1757</v>
@@ -83657,7 +83701,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>524</v>
+        <v>317</v>
       </c>
       <c r="B248" t="s">
         <v>1757</v>
@@ -83665,7 +83709,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>432</v>
+        <v>587</v>
       </c>
       <c r="B249" t="s">
         <v>1757</v>
@@ -83673,7 +83717,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>74</v>
+        <v>422</v>
       </c>
       <c r="B250" t="s">
         <v>1757</v>
@@ -83681,7 +83725,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>539</v>
+        <v>361</v>
       </c>
       <c r="B251" t="s">
         <v>1757</v>
@@ -83689,7 +83733,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>123</v>
+        <v>1400</v>
       </c>
       <c r="B252" t="s">
         <v>1757</v>
@@ -83697,15 +83741,23 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>207</v>
+        <v>25</v>
       </c>
       <c r="B253" t="s">
         <v>1757</v>
       </c>
     </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>24</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1757</v>
+      </c>
+    </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>369</v>
+        <v>439</v>
       </c>
       <c r="B255" t="s">
         <v>1757</v>
@@ -83713,7 +83765,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>387</v>
+        <v>566</v>
       </c>
       <c r="B256" t="s">
         <v>1757</v>
@@ -83721,7 +83773,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>251</v>
+        <v>54</v>
       </c>
       <c r="B257" t="s">
         <v>1757</v>
@@ -83729,7 +83781,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>517</v>
+        <v>60</v>
       </c>
       <c r="B258" t="s">
         <v>1757</v>
@@ -83737,7 +83789,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>225</v>
+        <v>282</v>
       </c>
       <c r="B259" t="s">
         <v>1757</v>
@@ -83745,7 +83797,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>296</v>
+        <v>56</v>
       </c>
       <c r="B260" t="s">
         <v>1757</v>
@@ -83753,7 +83805,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>460</v>
+        <v>73</v>
       </c>
       <c r="B261" t="s">
         <v>1757</v>
@@ -83761,7 +83813,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>598</v>
+        <v>365</v>
       </c>
       <c r="B262" t="s">
         <v>1757</v>
@@ -83769,7 +83821,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>323</v>
+        <v>115</v>
       </c>
       <c r="B263" t="s">
         <v>1757</v>
@@ -83777,7 +83829,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>206</v>
+        <v>355</v>
       </c>
       <c r="B264" t="s">
         <v>1757</v>
@@ -83785,7 +83837,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>464</v>
+        <v>589</v>
       </c>
       <c r="B265" t="s">
         <v>1757</v>
@@ -83793,7 +83845,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>224</v>
+        <v>434</v>
       </c>
       <c r="B266" t="s">
         <v>1757</v>
@@ -83801,7 +83853,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>428</v>
+        <v>346</v>
       </c>
       <c r="B267" t="s">
         <v>1757</v>
@@ -83809,7 +83861,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>597</v>
+        <v>17</v>
       </c>
       <c r="B268" t="s">
         <v>1757</v>
@@ -83817,7 +83869,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>251</v>
+        <v>106</v>
       </c>
       <c r="B269" t="s">
         <v>1757</v>
@@ -83825,7 +83877,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>174</v>
+        <v>445</v>
       </c>
       <c r="B270" t="s">
         <v>1757</v>
@@ -83833,7 +83885,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>580</v>
+        <v>249</v>
       </c>
       <c r="B271" t="s">
         <v>1757</v>
@@ -83841,7 +83893,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>388</v>
+        <v>266</v>
       </c>
       <c r="B272" t="s">
         <v>1757</v>
@@ -83849,7 +83901,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>308</v>
+        <v>7</v>
       </c>
       <c r="B273" t="s">
         <v>1757</v>
@@ -83857,7 +83909,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>290</v>
+        <v>0</v>
       </c>
       <c r="B274" t="s">
         <v>1757</v>
@@ -83865,7 +83917,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>557</v>
+        <v>280</v>
       </c>
       <c r="B275" t="s">
         <v>1757</v>
@@ -83873,7 +83925,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>468</v>
+        <v>429</v>
       </c>
       <c r="B276" t="s">
         <v>1757</v>
@@ -83881,7 +83933,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>386</v>
+        <v>180</v>
       </c>
       <c r="B277" t="s">
         <v>1757</v>
@@ -83889,7 +83941,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>536</v>
+        <v>520</v>
       </c>
       <c r="B278" t="s">
         <v>1757</v>
@@ -83897,7 +83949,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>35</v>
+        <v>514</v>
       </c>
       <c r="B279" t="s">
         <v>1757</v>
@@ -83905,7 +83957,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>221</v>
+        <v>457</v>
       </c>
       <c r="B280" t="s">
         <v>1757</v>
@@ -83913,7 +83965,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>15</v>
+        <v>405</v>
       </c>
       <c r="B281" t="s">
         <v>1757</v>
@@ -83921,7 +83973,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>463</v>
+        <v>378</v>
       </c>
       <c r="B282" t="s">
         <v>1757</v>
@@ -83929,7 +83981,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
       <c r="B283" t="s">
         <v>1757</v>
@@ -83937,7 +83989,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="B284" t="s">
         <v>1757</v>
@@ -83945,7 +83997,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>590</v>
+        <v>242</v>
       </c>
       <c r="B285" t="s">
         <v>1757</v>
@@ -83953,7 +84005,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>321</v>
+        <v>553</v>
       </c>
       <c r="B286" t="s">
         <v>1757</v>
@@ -83961,7 +84013,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B287" t="s">
         <v>1757</v>
@@ -83969,7 +84021,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>61</v>
+        <v>238</v>
       </c>
       <c r="B288" t="s">
         <v>1757</v>
@@ -83977,7 +84029,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B289" t="s">
         <v>1757</v>
@@ -83985,7 +84037,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>264</v>
+        <v>127</v>
       </c>
       <c r="B290" t="s">
         <v>1757</v>
@@ -83993,7 +84045,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>506</v>
+        <v>284</v>
       </c>
       <c r="B291" t="s">
         <v>1757</v>
@@ -84001,7 +84053,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>472</v>
+        <v>624</v>
       </c>
       <c r="B292" t="s">
         <v>1757</v>
@@ -84009,7 +84061,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>390</v>
+        <v>13</v>
       </c>
       <c r="B293" t="s">
         <v>1757</v>
@@ -84017,7 +84069,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>591</v>
+        <v>190</v>
       </c>
       <c r="B294" t="s">
         <v>1757</v>
@@ -84025,13 +84077,3656 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>155</v>
+        <v>485</v>
       </c>
       <c r="B295" t="s">
         <v>1757</v>
       </c>
     </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>458</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>344</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>212</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>209</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>408</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>477</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>451</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>340</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>627</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>459</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>268</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>104</v>
+      </c>
+      <c r="B308" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>399</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>103</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>363</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>334</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>488</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>105</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>200</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>138</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>3</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>257</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>260</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>623</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>96</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>182</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>195</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>287</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>18</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>275</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>493</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>270</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>364</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>446</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>205</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>72</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>141</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>283</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>33</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>305</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>164</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>177</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>178</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>393</v>
+      </c>
+      <c r="B340" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>59</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>31</v>
+      </c>
+      <c r="B342" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>304</v>
+      </c>
+      <c r="B343" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>53</v>
+      </c>
+      <c r="B344" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>612</v>
+      </c>
+      <c r="B345" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>156</v>
+      </c>
+      <c r="B346" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>203</v>
+      </c>
+      <c r="B347" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>191</v>
+      </c>
+      <c r="B348" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>30</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>331</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>527</v>
+      </c>
+      <c r="B351" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>593</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>37</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>592</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>50</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>389</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>604</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>617</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>276</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>297</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>509</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>538</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>97</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>306</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>327</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>601</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>316</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>620</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>554</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>391</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>289</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>230</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>63</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>300</v>
+      </c>
+      <c r="B374" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>114</v>
+      </c>
+      <c r="B375" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>19</v>
+      </c>
+      <c r="B376" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>258</v>
+      </c>
+      <c r="B377" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>28</v>
+      </c>
+      <c r="B378" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>584</v>
+      </c>
+      <c r="B379" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>29</v>
+      </c>
+      <c r="B380" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>565</v>
+      </c>
+      <c r="B381" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>499</v>
+      </c>
+      <c r="B382" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>444</v>
+      </c>
+      <c r="B383" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>299</v>
+      </c>
+      <c r="B384" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>217</v>
+      </c>
+      <c r="B385" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>413</v>
+      </c>
+      <c r="B386" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>87</v>
+      </c>
+      <c r="B387" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>219</v>
+      </c>
+      <c r="B388" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>187</v>
+      </c>
+      <c r="B389" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>357</v>
+      </c>
+      <c r="B390" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>108</v>
+      </c>
+      <c r="B391" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>21</v>
+      </c>
+      <c r="B392" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>436</v>
+      </c>
+      <c r="B393" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>142</v>
+      </c>
+      <c r="B394" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>348</v>
+      </c>
+      <c r="B395" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>250</v>
+      </c>
+      <c r="B396" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>415</v>
+      </c>
+      <c r="B397" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>112</v>
+      </c>
+      <c r="B398" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>546</v>
+      </c>
+      <c r="B399" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>424</v>
+      </c>
+      <c r="B400" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>345</v>
+      </c>
+      <c r="B401" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>380</v>
+      </c>
+      <c r="B402" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>229</v>
+      </c>
+      <c r="B403" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>379</v>
+      </c>
+      <c r="B404" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>228</v>
+      </c>
+      <c r="B405" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>631</v>
+      </c>
+      <c r="B406" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>356</v>
+      </c>
+      <c r="B407" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>278</v>
+      </c>
+      <c r="B408" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>22</v>
+      </c>
+      <c r="B409" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>594</v>
+      </c>
+      <c r="B410" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>36</v>
+      </c>
+      <c r="B411" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>452</v>
+      </c>
+      <c r="B412" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>246</v>
+      </c>
+      <c r="B413" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>483</v>
+      </c>
+      <c r="B414" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>586</v>
+      </c>
+      <c r="B415" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>161</v>
+      </c>
+      <c r="B416" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>137</v>
+      </c>
+      <c r="B417" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>181</v>
+      </c>
+      <c r="B418" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>486</v>
+      </c>
+      <c r="B419" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>395</v>
+      </c>
+      <c r="B420" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>125</v>
+      </c>
+      <c r="B421" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>274</v>
+      </c>
+      <c r="B422" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>547</v>
+      </c>
+      <c r="B423" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>16</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>129</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>347</v>
+      </c>
+      <c r="B426" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>329</v>
+      </c>
+      <c r="B427" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>518</v>
+      </c>
+      <c r="B428" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>567</v>
+      </c>
+      <c r="B429" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>101</v>
+      </c>
+      <c r="B430" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>62</v>
+      </c>
+      <c r="B431" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>473</v>
+      </c>
+      <c r="B432" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>152</v>
+      </c>
+      <c r="B433" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>196</v>
+      </c>
+      <c r="B434" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>549</v>
+      </c>
+      <c r="B435" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>70</v>
+      </c>
+      <c r="B436" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>466</v>
+      </c>
+      <c r="B437" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>343</v>
+      </c>
+      <c r="B438" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>443</v>
+      </c>
+      <c r="B439" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>52</v>
+      </c>
+      <c r="B440" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>262</v>
+      </c>
+      <c r="B441" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>148</v>
+      </c>
+      <c r="B442" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>237</v>
+      </c>
+      <c r="B443" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>373</v>
+      </c>
+      <c r="B444" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>564</v>
+      </c>
+      <c r="B445" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>71</v>
+      </c>
+      <c r="B446" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>610</v>
+      </c>
+      <c r="B447" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>602</v>
+      </c>
+      <c r="B448" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>360</v>
+      </c>
+      <c r="B449" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>502</v>
+      </c>
+      <c r="B450" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>524</v>
+      </c>
+      <c r="B451" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>432</v>
+      </c>
+      <c r="B452" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>74</v>
+      </c>
+      <c r="B453" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>539</v>
+      </c>
+      <c r="B454" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>123</v>
+      </c>
+      <c r="B455" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>207</v>
+      </c>
+      <c r="B456" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>369</v>
+      </c>
+      <c r="B457" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>387</v>
+      </c>
+      <c r="B458" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>251</v>
+      </c>
+      <c r="B459" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>517</v>
+      </c>
+      <c r="B460" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>225</v>
+      </c>
+      <c r="B461" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>296</v>
+      </c>
+      <c r="B462" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>460</v>
+      </c>
+      <c r="B463" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>598</v>
+      </c>
+      <c r="B464" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>323</v>
+      </c>
+      <c r="B465" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>206</v>
+      </c>
+      <c r="B466" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>464</v>
+      </c>
+      <c r="B467" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>224</v>
+      </c>
+      <c r="B468" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>428</v>
+      </c>
+      <c r="B469" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>597</v>
+      </c>
+      <c r="B470" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>174</v>
+      </c>
+      <c r="B471" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>580</v>
+      </c>
+      <c r="B472" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>388</v>
+      </c>
+      <c r="B473" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>308</v>
+      </c>
+      <c r="B474" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>290</v>
+      </c>
+      <c r="B475" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>557</v>
+      </c>
+      <c r="B476" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>468</v>
+      </c>
+      <c r="B477" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>386</v>
+      </c>
+      <c r="B478" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>536</v>
+      </c>
+      <c r="B479" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>35</v>
+      </c>
+      <c r="B480" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>221</v>
+      </c>
+      <c r="B481" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>15</v>
+      </c>
+      <c r="B482" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>463</v>
+      </c>
+      <c r="B483" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>503</v>
+      </c>
+      <c r="B484" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>583</v>
+      </c>
+      <c r="B485" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>590</v>
+      </c>
+      <c r="B486" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>321</v>
+      </c>
+      <c r="B487" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>578</v>
+      </c>
+      <c r="B488" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>61</v>
+      </c>
+      <c r="B489" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>479</v>
+      </c>
+      <c r="B490" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>264</v>
+      </c>
+      <c r="B491" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>506</v>
+      </c>
+      <c r="B492" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>472</v>
+      </c>
+      <c r="B493" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>390</v>
+      </c>
+      <c r="B494" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>591</v>
+      </c>
+      <c r="B495" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>155</v>
+      </c>
+      <c r="B496" t="s">
+        <v>1757</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98:A496">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34855E2C-7FBA-42FC-9C72-6721D4DBD788}">
+  <dimension ref="A2:A403"/>
+  <sheetViews>
+    <sheetView topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A403"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>155</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A403" xr:uid="{34855E2C-7FBA-42FC-9C72-6721D4DBD788}"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/.xlsx/full_stock_classification.xlsx
+++ b/.xlsx/full_stock_classification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\twan-projects\py-app\.xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECDB2AF-622F-421F-B3CB-445FE0C9F766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8696A608-6C33-4EE8-8C33-CB14CFBA827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22046" yWindow="-103" windowWidth="22149" windowHeight="13200" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quarter_stock_list" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17968" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17966" uniqueCount="1759">
   <si>
     <t>PGC</t>
   </si>
@@ -5424,17 +5424,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -49398,9 +49388,9 @@
         <f>VLOOKUP(D633,name_map!$A$2:$D$32,3,0)</f>
         <v>Công ty tài chính</v>
       </c>
-      <c r="G633" t="str">
+      <c r="G633" t="e">
         <f>VLOOKUP(A633,signal_stock!$A:$B,2,0)</f>
-        <v>o</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
@@ -81723,10 +81713,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD58B990-4E93-4226-B2C3-FA35F0465DC7}">
-  <dimension ref="A1:B496"/>
+  <dimension ref="A1:B495"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A482" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I489" sqref="I489"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -81965,7 +81955,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
         <v>1758</v>
@@ -81973,7 +81963,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>522</v>
       </c>
       <c r="B31" t="s">
         <v>1758</v>
@@ -81981,7 +81971,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>522</v>
+        <v>608</v>
       </c>
       <c r="B32" t="s">
         <v>1758</v>
@@ -81989,7 +81979,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>608</v>
+        <v>20</v>
       </c>
       <c r="B33" t="s">
         <v>1758</v>
@@ -81997,7 +81987,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>281</v>
       </c>
       <c r="B34" t="s">
         <v>1758</v>
@@ -82005,7 +81995,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>281</v>
+        <v>202</v>
       </c>
       <c r="B35" t="s">
         <v>1758</v>
@@ -82013,7 +82003,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>202</v>
+        <v>397</v>
       </c>
       <c r="B36" t="s">
         <v>1758</v>
@@ -82021,7 +82011,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>397</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
         <v>1758</v>
@@ -82029,7 +82019,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>558</v>
       </c>
       <c r="B38" t="s">
         <v>1758</v>
@@ -82037,7 +82027,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>558</v>
+        <v>376</v>
       </c>
       <c r="B39" t="s">
         <v>1758</v>
@@ -82045,7 +82035,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>376</v>
+        <v>263</v>
       </c>
       <c r="B40" t="s">
         <v>1758</v>
@@ -82053,7 +82043,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>263</v>
+        <v>401</v>
       </c>
       <c r="B41" t="s">
         <v>1758</v>
@@ -82061,7 +82051,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>401</v>
+        <v>609</v>
       </c>
       <c r="B42" t="s">
         <v>1758</v>
@@ -82069,7 +82059,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>609</v>
+        <v>170</v>
       </c>
       <c r="B43" t="s">
         <v>1758</v>
@@ -82077,7 +82067,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>170</v>
+        <v>256</v>
       </c>
       <c r="B44" t="s">
         <v>1758</v>
@@ -82085,7 +82075,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s">
         <v>1758</v>
@@ -82093,7 +82083,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="B46" t="s">
         <v>1758</v>
@@ -82101,7 +82091,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>126</v>
+        <v>498</v>
       </c>
       <c r="B47" t="s">
         <v>1758</v>
@@ -82109,7 +82099,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B48" t="s">
         <v>1758</v>
@@ -82117,7 +82107,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>497</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
         <v>1758</v>
@@ -82125,7 +82115,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>277</v>
       </c>
       <c r="B50" t="s">
         <v>1758</v>
@@ -82133,7 +82123,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>277</v>
+        <v>618</v>
       </c>
       <c r="B51" t="s">
         <v>1758</v>
@@ -82141,7 +82131,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>618</v>
+        <v>27</v>
       </c>
       <c r="B52" t="s">
         <v>1758</v>
@@ -82149,7 +82139,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>437</v>
       </c>
       <c r="B53" t="s">
         <v>1758</v>
@@ -82157,7 +82147,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="B54" t="s">
         <v>1758</v>
@@ -82165,7 +82155,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>487</v>
+        <v>131</v>
       </c>
       <c r="B55" t="s">
         <v>1758</v>
@@ -82173,7 +82163,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>131</v>
+        <v>501</v>
       </c>
       <c r="B56" t="s">
         <v>1758</v>
@@ -82181,7 +82171,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>501</v>
+        <v>143</v>
       </c>
       <c r="B57" t="s">
         <v>1758</v>
@@ -82189,7 +82179,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>143</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s">
         <v>1758</v>
@@ -82197,7 +82187,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>324</v>
+        <v>384</v>
       </c>
       <c r="B59" t="s">
         <v>1758</v>
@@ -82205,7 +82195,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>384</v>
+        <v>606</v>
       </c>
       <c r="B60" t="s">
         <v>1758</v>
@@ -82213,7 +82203,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>606</v>
+        <v>551</v>
       </c>
       <c r="B61" t="s">
         <v>1758</v>
@@ -82221,7 +82211,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>551</v>
+        <v>615</v>
       </c>
       <c r="B62" t="s">
         <v>1758</v>
@@ -82229,7 +82219,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>615</v>
+        <v>559</v>
       </c>
       <c r="B63" t="s">
         <v>1758</v>
@@ -82237,7 +82227,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>559</v>
+        <v>392</v>
       </c>
       <c r="B64" t="s">
         <v>1758</v>
@@ -82245,7 +82235,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>392</v>
+        <v>41</v>
       </c>
       <c r="B65" t="s">
         <v>1758</v>
@@ -82253,7 +82243,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>41</v>
+        <v>449</v>
       </c>
       <c r="B66" t="s">
         <v>1758</v>
@@ -82261,7 +82251,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>449</v>
+        <v>511</v>
       </c>
       <c r="B67" t="s">
         <v>1758</v>
@@ -82269,7 +82259,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>511</v>
+        <v>398</v>
       </c>
       <c r="B68" t="s">
         <v>1758</v>
@@ -82277,7 +82267,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>398</v>
+        <v>575</v>
       </c>
       <c r="B69" t="s">
         <v>1758</v>
@@ -82285,7 +82275,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>575</v>
+        <v>12</v>
       </c>
       <c r="B70" t="s">
         <v>1758</v>
@@ -82293,7 +82283,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>12</v>
+        <v>462</v>
       </c>
       <c r="B71" t="s">
         <v>1758</v>
@@ -82301,7 +82291,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>462</v>
+        <v>537</v>
       </c>
       <c r="B72" t="s">
         <v>1758</v>
@@ -82309,7 +82299,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>537</v>
+        <v>227</v>
       </c>
       <c r="B73" t="s">
         <v>1758</v>
@@ -82317,7 +82307,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>227</v>
+        <v>613</v>
       </c>
       <c r="B74" t="s">
         <v>1758</v>
@@ -82325,7 +82315,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>613</v>
+        <v>234</v>
       </c>
       <c r="B75" t="s">
         <v>1758</v>
@@ -82333,7 +82323,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>234</v>
+        <v>350</v>
       </c>
       <c r="B76" t="s">
         <v>1758</v>
@@ -82341,7 +82331,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>350</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
         <v>1758</v>
@@ -82349,7 +82339,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>14</v>
+        <v>599</v>
       </c>
       <c r="B78" t="s">
         <v>1758</v>
@@ -82357,7 +82347,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>599</v>
+        <v>400</v>
       </c>
       <c r="B79" t="s">
         <v>1758</v>
@@ -82365,7 +82355,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="B80" t="s">
         <v>1758</v>
@@ -82373,7 +82363,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>240</v>
+        <v>204</v>
       </c>
       <c r="B81" t="s">
         <v>1758</v>
@@ -82381,7 +82371,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="B82" t="s">
         <v>1758</v>
@@ -82389,7 +82379,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B83" t="s">
         <v>1758</v>
@@ -82397,7 +82387,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>214</v>
+        <v>91</v>
       </c>
       <c r="B84" t="s">
         <v>1758</v>
@@ -82405,7 +82395,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B85" t="s">
         <v>1758</v>
@@ -82413,7 +82403,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
       <c r="B86" t="s">
         <v>1758</v>
@@ -82421,7 +82411,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>406</v>
       </c>
       <c r="B87" t="s">
         <v>1758</v>
@@ -82429,7 +82419,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>406</v>
+        <v>80</v>
       </c>
       <c r="B88" t="s">
         <v>1758</v>
@@ -82437,7 +82427,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>500</v>
       </c>
       <c r="B89" t="s">
         <v>1758</v>
@@ -82445,7 +82435,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>500</v>
+        <v>39</v>
       </c>
       <c r="B90" t="s">
         <v>1758</v>
@@ -82453,7 +82443,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>383</v>
       </c>
       <c r="B91" t="s">
         <v>1758</v>
@@ -82461,7 +82451,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>383</v>
+        <v>416</v>
       </c>
       <c r="B92" t="s">
         <v>1758</v>
@@ -82469,7 +82459,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>416</v>
+        <v>167</v>
       </c>
       <c r="B93" t="s">
         <v>1758</v>
@@ -82477,7 +82467,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>167</v>
+        <v>199</v>
       </c>
       <c r="B94" t="s">
         <v>1758</v>
@@ -82485,23 +82475,23 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>199</v>
+        <v>309</v>
       </c>
       <c r="B95" t="s">
         <v>1758</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>309</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1758</v>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>134</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="B98" t="s">
         <v>1757</v>
@@ -82509,7 +82499,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="B99" t="s">
         <v>1757</v>
@@ -82517,7 +82507,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>314</v>
+        <v>175</v>
       </c>
       <c r="B100" t="s">
         <v>1757</v>
@@ -82525,7 +82515,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>175</v>
+        <v>330</v>
       </c>
       <c r="B101" t="s">
         <v>1757</v>
@@ -82533,7 +82523,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>330</v>
+        <v>210</v>
       </c>
       <c r="B102" t="s">
         <v>1757</v>
@@ -82541,7 +82531,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="B103" t="s">
         <v>1757</v>
@@ -82549,7 +82539,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>168</v>
+        <v>69</v>
       </c>
       <c r="B104" t="s">
         <v>1757</v>
@@ -82557,7 +82547,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>69</v>
+        <v>541</v>
       </c>
       <c r="B105" t="s">
         <v>1757</v>
@@ -82565,7 +82555,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>541</v>
+        <v>1378</v>
       </c>
       <c r="B106" t="s">
         <v>1757</v>
@@ -82573,7 +82563,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>1378</v>
+        <v>144</v>
       </c>
       <c r="B107" t="s">
         <v>1757</v>
@@ -82581,7 +82571,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>144</v>
+        <v>1750</v>
       </c>
       <c r="B108" t="s">
         <v>1757</v>
@@ -82589,7 +82579,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>1750</v>
+        <v>75</v>
       </c>
       <c r="B109" t="s">
         <v>1757</v>
@@ -82597,7 +82587,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B110" t="s">
         <v>1757</v>
@@ -82605,7 +82595,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>93</v>
+        <v>192</v>
       </c>
       <c r="B111" t="s">
         <v>1757</v>
@@ -82613,7 +82603,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>192</v>
+        <v>58</v>
       </c>
       <c r="B112" t="s">
         <v>1757</v>
@@ -82621,7 +82611,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>58</v>
+        <v>571</v>
       </c>
       <c r="B113" t="s">
         <v>1757</v>
@@ -82629,7 +82619,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>571</v>
+        <v>159</v>
       </c>
       <c r="B114" t="s">
         <v>1757</v>
@@ -82637,7 +82627,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>159</v>
+        <v>1746</v>
       </c>
       <c r="B115" t="s">
         <v>1757</v>
@@ -82645,7 +82635,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>1746</v>
+        <v>146</v>
       </c>
       <c r="B116" t="s">
         <v>1757</v>
@@ -82653,7 +82643,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>232</v>
       </c>
       <c r="B117" t="s">
         <v>1757</v>
@@ -82661,7 +82651,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="B118" t="s">
         <v>1757</v>
@@ -82669,7 +82659,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="B119" t="s">
         <v>1757</v>
@@ -82677,7 +82667,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>26</v>
+        <v>505</v>
       </c>
       <c r="B120" t="s">
         <v>1757</v>
@@ -82685,7 +82675,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>505</v>
+        <v>2</v>
       </c>
       <c r="B121" t="s">
         <v>1757</v>
@@ -82693,7 +82683,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>2</v>
+        <v>494</v>
       </c>
       <c r="B122" t="s">
         <v>1757</v>
@@ -82701,7 +82691,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>494</v>
+        <v>337</v>
       </c>
       <c r="B123" t="s">
         <v>1757</v>
@@ -82709,7 +82699,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="B124" t="s">
         <v>1757</v>
@@ -82717,7 +82707,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
       <c r="B125" t="s">
         <v>1757</v>
@@ -82725,7 +82715,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>318</v>
+        <v>57</v>
       </c>
       <c r="B126" t="s">
         <v>1757</v>
@@ -82733,7 +82723,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="B127" t="s">
         <v>1757</v>
@@ -82741,7 +82731,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>213</v>
+        <v>353</v>
       </c>
       <c r="B128" t="s">
         <v>1757</v>
@@ -82749,7 +82739,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
       <c r="B129" t="s">
         <v>1757</v>
@@ -82757,7 +82747,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>291</v>
+        <v>467</v>
       </c>
       <c r="B130" t="s">
         <v>1757</v>
@@ -82765,7 +82755,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>467</v>
+        <v>160</v>
       </c>
       <c r="B131" t="s">
         <v>1757</v>
@@ -82773,7 +82763,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="B132" t="s">
         <v>1757</v>
@@ -82781,7 +82771,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>85</v>
+        <v>521</v>
       </c>
       <c r="B133" t="s">
         <v>1757</v>
@@ -82789,7 +82779,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>521</v>
+        <v>375</v>
       </c>
       <c r="B134" t="s">
         <v>1757</v>
@@ -82797,7 +82787,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>375</v>
+        <v>79</v>
       </c>
       <c r="B135" t="s">
         <v>1757</v>
@@ -82805,7 +82795,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="B136" t="s">
         <v>1757</v>
@@ -82813,7 +82803,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="B137" t="s">
         <v>1757</v>
@@ -82821,7 +82811,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>208</v>
+        <v>491</v>
       </c>
       <c r="B138" t="s">
         <v>1757</v>
@@ -82829,7 +82819,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>491</v>
+        <v>555</v>
       </c>
       <c r="B139" t="s">
         <v>1757</v>
@@ -82837,7 +82827,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="B140" t="s">
         <v>1757</v>
@@ -82845,7 +82835,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>545</v>
+        <v>313</v>
       </c>
       <c r="B141" t="s">
         <v>1757</v>
@@ -82853,7 +82843,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>313</v>
+        <v>32</v>
       </c>
       <c r="B142" t="s">
         <v>1757</v>
@@ -82861,7 +82851,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>32</v>
+        <v>349</v>
       </c>
       <c r="B143" t="s">
         <v>1757</v>
@@ -82869,7 +82859,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>349</v>
+        <v>568</v>
       </c>
       <c r="B144" t="s">
         <v>1757</v>
@@ -82877,7 +82867,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>568</v>
+        <v>333</v>
       </c>
       <c r="B145" t="s">
         <v>1757</v>
@@ -82885,7 +82875,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>333</v>
+        <v>1223</v>
       </c>
       <c r="B146" t="s">
         <v>1757</v>
@@ -82893,7 +82883,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>1223</v>
+        <v>201</v>
       </c>
       <c r="B147" t="s">
         <v>1757</v>
@@ -82901,7 +82891,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>201</v>
+        <v>528</v>
       </c>
       <c r="B148" t="s">
         <v>1757</v>
@@ -82909,7 +82899,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>528</v>
+        <v>51</v>
       </c>
       <c r="B149" t="s">
         <v>1757</v>
@@ -82917,7 +82907,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>51</v>
+        <v>132</v>
       </c>
       <c r="B150" t="s">
         <v>1757</v>
@@ -82925,7 +82915,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>132</v>
+        <v>273</v>
       </c>
       <c r="B151" t="s">
         <v>1757</v>
@@ -82933,7 +82923,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>273</v>
+        <v>1328</v>
       </c>
       <c r="B152" t="s">
         <v>1757</v>
@@ -82941,7 +82931,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>1328</v>
+        <v>385</v>
       </c>
       <c r="B153" t="s">
         <v>1757</v>
@@ -82949,7 +82939,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>385</v>
+        <v>516</v>
       </c>
       <c r="B154" t="s">
         <v>1757</v>
@@ -82957,7 +82947,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>516</v>
+        <v>381</v>
       </c>
       <c r="B155" t="s">
         <v>1757</v>
@@ -82965,7 +82955,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>381</v>
+        <v>339</v>
       </c>
       <c r="B156" t="s">
         <v>1757</v>
@@ -82973,7 +82963,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>339</v>
+        <v>544</v>
       </c>
       <c r="B157" t="s">
         <v>1757</v>
@@ -82981,7 +82971,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="B158" t="s">
         <v>1757</v>
@@ -82989,7 +82979,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>532</v>
+        <v>476</v>
       </c>
       <c r="B159" t="s">
         <v>1757</v>
@@ -82997,7 +82987,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="B160" t="s">
         <v>1757</v>
@@ -83005,7 +82995,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>533</v>
+        <v>48</v>
       </c>
       <c r="B161" t="s">
         <v>1757</v>
@@ -83013,7 +83003,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>48</v>
+        <v>414</v>
       </c>
       <c r="B162" t="s">
         <v>1757</v>
@@ -83021,7 +83011,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>414</v>
+        <v>543</v>
       </c>
       <c r="B163" t="s">
         <v>1757</v>
@@ -83029,7 +83019,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>543</v>
+        <v>99</v>
       </c>
       <c r="B164" t="s">
         <v>1757</v>
@@ -83037,7 +83027,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="B165" t="s">
         <v>1757</v>
@@ -83045,7 +83035,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="B166" t="s">
         <v>1757</v>
@@ -83053,7 +83043,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>81</v>
+        <v>529</v>
       </c>
       <c r="B167" t="s">
         <v>1757</v>
@@ -83061,7 +83051,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>529</v>
+        <v>431</v>
       </c>
       <c r="B168" t="s">
         <v>1757</v>
@@ -83069,7 +83059,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>431</v>
+        <v>68</v>
       </c>
       <c r="B169" t="s">
         <v>1757</v>
@@ -83077,7 +83067,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>68</v>
+        <v>1749</v>
       </c>
       <c r="B170" t="s">
         <v>1757</v>
@@ -83085,7 +83075,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>1749</v>
+        <v>427</v>
       </c>
       <c r="B171" t="s">
         <v>1757</v>
@@ -83093,7 +83083,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>427</v>
+        <v>1393</v>
       </c>
       <c r="B172" t="s">
         <v>1757</v>
@@ -83101,7 +83091,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>1393</v>
+        <v>184</v>
       </c>
       <c r="B173" t="s">
         <v>1757</v>
@@ -83109,7 +83099,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="B174" t="s">
         <v>1757</v>
@@ -83117,7 +83107,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="B175" t="s">
         <v>1757</v>
@@ -83125,7 +83115,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>157</v>
+        <v>404</v>
       </c>
       <c r="B176" t="s">
         <v>1757</v>
@@ -83133,7 +83123,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>404</v>
+        <v>629</v>
       </c>
       <c r="B177" t="s">
         <v>1757</v>
@@ -83141,7 +83131,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>629</v>
+        <v>42</v>
       </c>
       <c r="B178" t="s">
         <v>1757</v>
@@ -83149,7 +83139,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>42</v>
+        <v>371</v>
       </c>
       <c r="B179" t="s">
         <v>1757</v>
@@ -83157,7 +83147,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>371</v>
+        <v>5</v>
       </c>
       <c r="B180" t="s">
         <v>1757</v>
@@ -83165,7 +83155,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>5</v>
+        <v>512</v>
       </c>
       <c r="B181" t="s">
         <v>1757</v>
@@ -83173,7 +83163,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>512</v>
+        <v>147</v>
       </c>
       <c r="B182" t="s">
         <v>1757</v>
@@ -83181,7 +83171,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>147</v>
+        <v>23</v>
       </c>
       <c r="B183" t="s">
         <v>1757</v>
@@ -83189,7 +83179,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>23</v>
+        <v>302</v>
       </c>
       <c r="B184" t="s">
         <v>1757</v>
@@ -83197,7 +83187,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>302</v>
+        <v>523</v>
       </c>
       <c r="B185" t="s">
         <v>1757</v>
@@ -83205,7 +83195,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>523</v>
+        <v>102</v>
       </c>
       <c r="B186" t="s">
         <v>1757</v>
@@ -83213,7 +83203,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>102</v>
+        <v>188</v>
       </c>
       <c r="B187" t="s">
         <v>1757</v>
@@ -83221,7 +83211,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>188</v>
+        <v>150</v>
       </c>
       <c r="B188" t="s">
         <v>1757</v>
@@ -83229,7 +83219,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>150</v>
+        <v>394</v>
       </c>
       <c r="B189" t="s">
         <v>1757</v>
@@ -83237,7 +83227,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>394</v>
+        <v>245</v>
       </c>
       <c r="B190" t="s">
         <v>1757</v>
@@ -83245,7 +83235,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>245</v>
+        <v>484</v>
       </c>
       <c r="B191" t="s">
         <v>1757</v>
@@ -83253,7 +83243,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>484</v>
+        <v>109</v>
       </c>
       <c r="B192" t="s">
         <v>1757</v>
@@ -83261,7 +83251,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>109</v>
+        <v>421</v>
       </c>
       <c r="B193" t="s">
         <v>1757</v>
@@ -83269,7 +83259,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>421</v>
+        <v>435</v>
       </c>
       <c r="B194" t="s">
         <v>1757</v>
@@ -83277,7 +83267,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>435</v>
+        <v>8</v>
       </c>
       <c r="B195" t="s">
         <v>1757</v>
@@ -83285,7 +83275,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>8</v>
+        <v>1115</v>
       </c>
       <c r="B196" t="s">
         <v>1757</v>
@@ -83293,7 +83283,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>1115</v>
+        <v>596</v>
       </c>
       <c r="B197" t="s">
         <v>1757</v>
@@ -83301,7 +83291,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>596</v>
+        <v>94</v>
       </c>
       <c r="B198" t="s">
         <v>1757</v>
@@ -83309,7 +83299,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>94</v>
+        <v>252</v>
       </c>
       <c r="B199" t="s">
         <v>1757</v>
@@ -83317,7 +83307,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>252</v>
+        <v>455</v>
       </c>
       <c r="B200" t="s">
         <v>1757</v>
@@ -83325,7 +83315,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>455</v>
+        <v>368</v>
       </c>
       <c r="B201" t="s">
         <v>1757</v>
@@ -83333,7 +83323,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>368</v>
+        <v>1</v>
       </c>
       <c r="B202" t="s">
         <v>1757</v>
@@ -83341,7 +83331,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="B203" t="s">
         <v>1757</v>
@@ -83349,7 +83339,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>151</v>
+        <v>231</v>
       </c>
       <c r="B204" t="s">
         <v>1757</v>
@@ -83357,7 +83347,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="B205" t="s">
         <v>1757</v>
@@ -83365,7 +83355,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>153</v>
+        <v>86</v>
       </c>
       <c r="B206" t="s">
         <v>1757</v>
@@ -83373,7 +83363,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="B207" t="s">
         <v>1757</v>
@@ -83381,7 +83371,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>117</v>
+        <v>579</v>
       </c>
       <c r="B208" t="s">
         <v>1757</v>
@@ -83389,7 +83379,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>579</v>
+        <v>530</v>
       </c>
       <c r="B209" t="s">
         <v>1757</v>
@@ -83397,7 +83387,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>530</v>
+        <v>220</v>
       </c>
       <c r="B210" t="s">
         <v>1757</v>
@@ -83405,7 +83395,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>1757</v>
@@ -83413,7 +83403,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="B212" t="s">
         <v>1757</v>
@@ -83421,7 +83411,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>269</v>
+        <v>621</v>
       </c>
       <c r="B213" t="s">
         <v>1757</v>
@@ -83429,7 +83419,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>621</v>
+        <v>515</v>
       </c>
       <c r="B214" t="s">
         <v>1757</v>
@@ -83437,7 +83427,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>515</v>
+        <v>377</v>
       </c>
       <c r="B215" t="s">
         <v>1757</v>
@@ -83445,7 +83435,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>377</v>
+        <v>342</v>
       </c>
       <c r="B216" t="s">
         <v>1757</v>
@@ -83453,7 +83443,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>342</v>
+        <v>441</v>
       </c>
       <c r="B217" t="s">
         <v>1757</v>
@@ -83461,7 +83451,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>441</v>
+        <v>163</v>
       </c>
       <c r="B218" t="s">
         <v>1757</v>
@@ -83469,7 +83459,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B219" t="s">
         <v>1757</v>
@@ -83477,7 +83467,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>154</v>
+        <v>454</v>
       </c>
       <c r="B220" t="s">
         <v>1757</v>
@@ -83485,7 +83475,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="B221" t="s">
         <v>1757</v>
@@ -83493,7 +83483,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="B222" t="s">
         <v>1757</v>
@@ -83501,7 +83491,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>426</v>
+        <v>82</v>
       </c>
       <c r="B223" t="s">
         <v>1757</v>
@@ -83509,7 +83499,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>82</v>
+        <v>563</v>
       </c>
       <c r="B224" t="s">
         <v>1757</v>
@@ -83517,7 +83507,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>563</v>
+        <v>410</v>
       </c>
       <c r="B225" t="s">
         <v>1757</v>
@@ -83525,7 +83515,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>410</v>
+        <v>614</v>
       </c>
       <c r="B226" t="s">
         <v>1757</v>
@@ -83533,7 +83523,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>614</v>
+        <v>358</v>
       </c>
       <c r="B227" t="s">
         <v>1757</v>
@@ -83541,7 +83531,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>358</v>
+        <v>482</v>
       </c>
       <c r="B228" t="s">
         <v>1757</v>
@@ -83549,7 +83539,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>482</v>
+        <v>243</v>
       </c>
       <c r="B229" t="s">
         <v>1757</v>
@@ -83557,7 +83547,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>243</v>
+        <v>588</v>
       </c>
       <c r="B230" t="s">
         <v>1757</v>
@@ -83565,7 +83555,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B231" t="s">
         <v>1757</v>
@@ -83573,7 +83563,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>585</v>
+        <v>396</v>
       </c>
       <c r="B232" t="s">
         <v>1757</v>
@@ -83581,7 +83571,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>396</v>
+        <v>145</v>
       </c>
       <c r="B233" t="s">
         <v>1757</v>
@@ -83589,7 +83579,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>145</v>
+        <v>474</v>
       </c>
       <c r="B234" t="s">
         <v>1757</v>
@@ -83597,7 +83587,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>474</v>
+        <v>447</v>
       </c>
       <c r="B235" t="s">
         <v>1757</v>
@@ -83605,7 +83595,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>447</v>
+        <v>535</v>
       </c>
       <c r="B236" t="s">
         <v>1757</v>
@@ -83613,7 +83603,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>535</v>
+        <v>165</v>
       </c>
       <c r="B237" t="s">
         <v>1757</v>
@@ -83621,7 +83611,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="B238" t="s">
         <v>1757</v>
@@ -83629,7 +83619,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>139</v>
+        <v>1126</v>
       </c>
       <c r="B239" t="s">
         <v>1757</v>
@@ -83637,7 +83627,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>1126</v>
+        <v>574</v>
       </c>
       <c r="B240" t="s">
         <v>1757</v>
@@ -83645,7 +83635,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>574</v>
+        <v>336</v>
       </c>
       <c r="B241" t="s">
         <v>1757</v>
@@ -83653,7 +83643,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>336</v>
+        <v>956</v>
       </c>
       <c r="B242" t="s">
         <v>1757</v>
@@ -83661,7 +83651,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>956</v>
+        <v>130</v>
       </c>
       <c r="B243" t="s">
         <v>1757</v>
@@ -83669,7 +83659,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>130</v>
+        <v>507</v>
       </c>
       <c r="B244" t="s">
         <v>1757</v>
@@ -83677,7 +83667,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>507</v>
+        <v>1748</v>
       </c>
       <c r="B245" t="s">
         <v>1757</v>
@@ -83685,7 +83675,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>1748</v>
+        <v>241</v>
       </c>
       <c r="B246" t="s">
         <v>1757</v>
@@ -83693,7 +83683,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>241</v>
+        <v>317</v>
       </c>
       <c r="B247" t="s">
         <v>1757</v>
@@ -83701,7 +83691,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>317</v>
+        <v>587</v>
       </c>
       <c r="B248" t="s">
         <v>1757</v>
@@ -83709,7 +83699,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>587</v>
+        <v>422</v>
       </c>
       <c r="B249" t="s">
         <v>1757</v>
@@ -83717,7 +83707,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
       <c r="B250" t="s">
         <v>1757</v>
@@ -83725,7 +83715,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>361</v>
+        <v>1400</v>
       </c>
       <c r="B251" t="s">
         <v>1757</v>
@@ -83733,7 +83723,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>1400</v>
+        <v>25</v>
       </c>
       <c r="B252" t="s">
         <v>1757</v>
@@ -83741,7 +83731,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B253" t="s">
         <v>1757</v>
@@ -83749,7 +83739,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>24</v>
+        <v>439</v>
       </c>
       <c r="B254" t="s">
         <v>1757</v>
@@ -83757,7 +83747,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>439</v>
+        <v>566</v>
       </c>
       <c r="B255" t="s">
         <v>1757</v>
@@ -83765,7 +83755,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>566</v>
+        <v>54</v>
       </c>
       <c r="B256" t="s">
         <v>1757</v>
@@ -83773,7 +83763,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B257" t="s">
         <v>1757</v>
@@ -83781,7 +83771,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>60</v>
+        <v>282</v>
       </c>
       <c r="B258" t="s">
         <v>1757</v>
@@ -83789,7 +83779,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>282</v>
+        <v>56</v>
       </c>
       <c r="B259" t="s">
         <v>1757</v>
@@ -83797,7 +83787,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="B260" t="s">
         <v>1757</v>
@@ -83805,7 +83795,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>73</v>
+        <v>365</v>
       </c>
       <c r="B261" t="s">
         <v>1757</v>
@@ -83813,7 +83803,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>365</v>
+        <v>115</v>
       </c>
       <c r="B262" t="s">
         <v>1757</v>
@@ -83821,7 +83811,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>115</v>
+        <v>355</v>
       </c>
       <c r="B263" t="s">
         <v>1757</v>
@@ -83829,7 +83819,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>355</v>
+        <v>589</v>
       </c>
       <c r="B264" t="s">
         <v>1757</v>
@@ -83837,7 +83827,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>589</v>
+        <v>434</v>
       </c>
       <c r="B265" t="s">
         <v>1757</v>
@@ -83845,7 +83835,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>434</v>
+        <v>346</v>
       </c>
       <c r="B266" t="s">
         <v>1757</v>
@@ -83853,7 +83843,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>346</v>
+        <v>17</v>
       </c>
       <c r="B267" t="s">
         <v>1757</v>
@@ -83861,7 +83851,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="B268" t="s">
         <v>1757</v>
@@ -83869,7 +83859,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>106</v>
+        <v>445</v>
       </c>
       <c r="B269" t="s">
         <v>1757</v>
@@ -83877,7 +83867,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>445</v>
+        <v>249</v>
       </c>
       <c r="B270" t="s">
         <v>1757</v>
@@ -83885,7 +83875,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="B271" t="s">
         <v>1757</v>
@@ -83893,7 +83883,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>266</v>
+        <v>7</v>
       </c>
       <c r="B272" t="s">
         <v>1757</v>
@@ -83901,7 +83891,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B273" t="s">
         <v>1757</v>
@@ -83909,7 +83899,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="B274" t="s">
         <v>1757</v>
@@ -83917,7 +83907,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>280</v>
+        <v>429</v>
       </c>
       <c r="B275" t="s">
         <v>1757</v>
@@ -83925,7 +83915,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>429</v>
+        <v>180</v>
       </c>
       <c r="B276" t="s">
         <v>1757</v>
@@ -83933,7 +83923,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>180</v>
+        <v>520</v>
       </c>
       <c r="B277" t="s">
         <v>1757</v>
@@ -83941,7 +83931,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B278" t="s">
         <v>1757</v>
@@ -83949,7 +83939,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="B279" t="s">
         <v>1757</v>
@@ -83957,7 +83947,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>457</v>
+        <v>405</v>
       </c>
       <c r="B280" t="s">
         <v>1757</v>
@@ -83965,7 +83955,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="B281" t="s">
         <v>1757</v>
@@ -83973,7 +83963,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>378</v>
+        <v>469</v>
       </c>
       <c r="B282" t="s">
         <v>1757</v>
@@ -83981,7 +83971,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>469</v>
+        <v>619</v>
       </c>
       <c r="B283" t="s">
         <v>1757</v>
@@ -83989,7 +83979,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>619</v>
+        <v>242</v>
       </c>
       <c r="B284" t="s">
         <v>1757</v>
@@ -83997,7 +83987,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>242</v>
+        <v>553</v>
       </c>
       <c r="B285" t="s">
         <v>1757</v>
@@ -84005,7 +83995,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>553</v>
+        <v>577</v>
       </c>
       <c r="B286" t="s">
         <v>1757</v>
@@ -84013,7 +84003,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>577</v>
+        <v>238</v>
       </c>
       <c r="B287" t="s">
         <v>1757</v>
@@ -84021,7 +84011,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>238</v>
+        <v>480</v>
       </c>
       <c r="B288" t="s">
         <v>1757</v>
@@ -84029,7 +84019,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>480</v>
+        <v>127</v>
       </c>
       <c r="B289" t="s">
         <v>1757</v>
@@ -84037,7 +84027,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>127</v>
+        <v>284</v>
       </c>
       <c r="B290" t="s">
         <v>1757</v>
@@ -84045,7 +84035,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>284</v>
+        <v>624</v>
       </c>
       <c r="B291" t="s">
         <v>1757</v>
@@ -84053,7 +84043,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>624</v>
+        <v>13</v>
       </c>
       <c r="B292" t="s">
         <v>1757</v>
@@ -84061,7 +84051,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>13</v>
+        <v>190</v>
       </c>
       <c r="B293" t="s">
         <v>1757</v>
@@ -84069,7 +84059,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>190</v>
+        <v>485</v>
       </c>
       <c r="B294" t="s">
         <v>1757</v>
@@ -84077,7 +84067,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>485</v>
+        <v>458</v>
       </c>
       <c r="B295" t="s">
         <v>1757</v>
@@ -84085,7 +84075,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>458</v>
+        <v>1460</v>
       </c>
       <c r="B296" t="s">
         <v>1757</v>
@@ -84093,7 +84083,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>1460</v>
+        <v>344</v>
       </c>
       <c r="B297" t="s">
         <v>1757</v>
@@ -84101,7 +84091,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>344</v>
+        <v>212</v>
       </c>
       <c r="B298" t="s">
         <v>1757</v>
@@ -84109,7 +84099,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B299" t="s">
         <v>1757</v>
@@ -84117,7 +84107,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>209</v>
+        <v>408</v>
       </c>
       <c r="B300" t="s">
         <v>1757</v>
@@ -84125,7 +84115,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>408</v>
+        <v>477</v>
       </c>
       <c r="B301" t="s">
         <v>1757</v>
@@ -84133,7 +84123,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="B302" t="s">
         <v>1757</v>
@@ -84141,7 +84131,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>451</v>
+        <v>340</v>
       </c>
       <c r="B303" t="s">
         <v>1757</v>
@@ -84149,7 +84139,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>340</v>
+        <v>627</v>
       </c>
       <c r="B304" t="s">
         <v>1757</v>
@@ -84157,7 +84147,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>627</v>
+        <v>459</v>
       </c>
       <c r="B305" t="s">
         <v>1757</v>
@@ -84165,7 +84155,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>459</v>
+        <v>268</v>
       </c>
       <c r="B306" t="s">
         <v>1757</v>
@@ -84173,7 +84163,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>268</v>
+        <v>104</v>
       </c>
       <c r="B307" t="s">
         <v>1757</v>
@@ -84181,7 +84171,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>104</v>
+        <v>399</v>
       </c>
       <c r="B308" t="s">
         <v>1757</v>
@@ -84189,7 +84179,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>399</v>
+        <v>103</v>
       </c>
       <c r="B309" t="s">
         <v>1757</v>
@@ -84197,7 +84187,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>103</v>
+        <v>363</v>
       </c>
       <c r="B310" t="s">
         <v>1757</v>
@@ -84205,7 +84195,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="B311" t="s">
         <v>1757</v>
@@ -84213,7 +84203,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>334</v>
+        <v>488</v>
       </c>
       <c r="B312" t="s">
         <v>1757</v>
@@ -84221,7 +84211,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>488</v>
+        <v>105</v>
       </c>
       <c r="B313" t="s">
         <v>1757</v>
@@ -84229,7 +84219,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="B314" t="s">
         <v>1757</v>
@@ -84237,7 +84227,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>200</v>
+        <v>138</v>
       </c>
       <c r="B315" t="s">
         <v>1757</v>
@@ -84245,7 +84235,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="B316" t="s">
         <v>1757</v>
@@ -84253,7 +84243,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>3</v>
+        <v>257</v>
       </c>
       <c r="B317" t="s">
         <v>1757</v>
@@ -84261,7 +84251,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B318" t="s">
         <v>1757</v>
@@ -84269,7 +84259,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>260</v>
+        <v>623</v>
       </c>
       <c r="B319" t="s">
         <v>1757</v>
@@ -84277,7 +84267,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>623</v>
+        <v>96</v>
       </c>
       <c r="B320" t="s">
         <v>1757</v>
@@ -84285,7 +84275,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="B321" t="s">
         <v>1757</v>
@@ -84293,7 +84283,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="B322" t="s">
         <v>1757</v>
@@ -84301,7 +84291,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>195</v>
+        <v>287</v>
       </c>
       <c r="B323" t="s">
         <v>1757</v>
@@ -84309,7 +84299,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="B324" t="s">
         <v>1757</v>
@@ -84317,7 +84307,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>18</v>
+        <v>275</v>
       </c>
       <c r="B325" t="s">
         <v>1757</v>
@@ -84325,7 +84315,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>275</v>
+        <v>493</v>
       </c>
       <c r="B326" t="s">
         <v>1757</v>
@@ -84333,7 +84323,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>493</v>
+        <v>270</v>
       </c>
       <c r="B327" t="s">
         <v>1757</v>
@@ -84341,7 +84331,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="B328" t="s">
         <v>1757</v>
@@ -84349,7 +84339,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="B329" t="s">
         <v>1757</v>
@@ -84357,7 +84347,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>446</v>
+        <v>205</v>
       </c>
       <c r="B330" t="s">
         <v>1757</v>
@@ -84365,7 +84355,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>205</v>
+        <v>72</v>
       </c>
       <c r="B331" t="s">
         <v>1757</v>
@@ -84373,7 +84363,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="B332" t="s">
         <v>1757</v>
@@ -84381,7 +84371,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>141</v>
+        <v>283</v>
       </c>
       <c r="B333" t="s">
         <v>1757</v>
@@ -84389,7 +84379,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>283</v>
+        <v>33</v>
       </c>
       <c r="B334" t="s">
         <v>1757</v>
@@ -84397,7 +84387,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
-        <v>33</v>
+        <v>305</v>
       </c>
       <c r="B335" t="s">
         <v>1757</v>
@@ -84405,7 +84395,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>305</v>
+        <v>164</v>
       </c>
       <c r="B336" t="s">
         <v>1757</v>
@@ -84413,7 +84403,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B337" t="s">
         <v>1757</v>
@@ -84421,7 +84411,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B338" t="s">
         <v>1757</v>
@@ -84429,7 +84419,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>178</v>
+        <v>393</v>
       </c>
       <c r="B339" t="s">
         <v>1757</v>
@@ -84437,7 +84427,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>393</v>
+        <v>59</v>
       </c>
       <c r="B340" t="s">
         <v>1757</v>
@@ -84445,7 +84435,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="B341" t="s">
         <v>1757</v>
@@ -84453,7 +84443,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>31</v>
+        <v>304</v>
       </c>
       <c r="B342" t="s">
         <v>1757</v>
@@ -84461,7 +84451,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>304</v>
+        <v>53</v>
       </c>
       <c r="B343" t="s">
         <v>1757</v>
@@ -84469,7 +84459,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>53</v>
+        <v>612</v>
       </c>
       <c r="B344" t="s">
         <v>1757</v>
@@ -84477,7 +84467,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
-        <v>612</v>
+        <v>156</v>
       </c>
       <c r="B345" t="s">
         <v>1757</v>
@@ -84485,7 +84475,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="B346" t="s">
         <v>1757</v>
@@ -84493,7 +84483,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B347" t="s">
         <v>1757</v>
@@ -84501,7 +84491,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="B348" t="s">
         <v>1757</v>
@@ -84509,7 +84499,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>30</v>
+        <v>331</v>
       </c>
       <c r="B349" t="s">
         <v>1757</v>
@@ -84517,7 +84507,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>331</v>
+        <v>527</v>
       </c>
       <c r="B350" t="s">
         <v>1757</v>
@@ -84525,7 +84515,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
-        <v>527</v>
+        <v>593</v>
       </c>
       <c r="B351" t="s">
         <v>1757</v>
@@ -84533,7 +84523,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>593</v>
+        <v>37</v>
       </c>
       <c r="B352" t="s">
         <v>1757</v>
@@ -84541,7 +84531,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>37</v>
+        <v>592</v>
       </c>
       <c r="B353" t="s">
         <v>1757</v>
@@ -84549,7 +84539,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>592</v>
+        <v>50</v>
       </c>
       <c r="B354" t="s">
         <v>1757</v>
@@ -84557,7 +84547,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
-        <v>50</v>
+        <v>389</v>
       </c>
       <c r="B355" t="s">
         <v>1757</v>
@@ -84565,7 +84555,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>389</v>
+        <v>604</v>
       </c>
       <c r="B356" t="s">
         <v>1757</v>
@@ -84573,7 +84563,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>604</v>
+        <v>617</v>
       </c>
       <c r="B357" t="s">
         <v>1757</v>
@@ -84581,7 +84571,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>617</v>
+        <v>276</v>
       </c>
       <c r="B358" t="s">
         <v>1757</v>
@@ -84589,7 +84579,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>276</v>
+        <v>297</v>
       </c>
       <c r="B359" t="s">
         <v>1757</v>
@@ -84597,7 +84587,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>297</v>
+        <v>509</v>
       </c>
       <c r="B360" t="s">
         <v>1757</v>
@@ -84605,7 +84595,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
-        <v>509</v>
+        <v>538</v>
       </c>
       <c r="B361" t="s">
         <v>1757</v>
@@ -84613,7 +84603,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>538</v>
+        <v>97</v>
       </c>
       <c r="B362" t="s">
         <v>1757</v>
@@ -84621,7 +84611,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>97</v>
+        <v>306</v>
       </c>
       <c r="B363" t="s">
         <v>1757</v>
@@ -84629,7 +84619,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>306</v>
+        <v>327</v>
       </c>
       <c r="B364" t="s">
         <v>1757</v>
@@ -84637,7 +84627,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>327</v>
+        <v>601</v>
       </c>
       <c r="B365" t="s">
         <v>1757</v>
@@ -84645,7 +84635,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>601</v>
+        <v>316</v>
       </c>
       <c r="B366" t="s">
         <v>1757</v>
@@ -84653,7 +84643,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>316</v>
+        <v>620</v>
       </c>
       <c r="B367" t="s">
         <v>1757</v>
@@ -84661,7 +84651,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>620</v>
+        <v>554</v>
       </c>
       <c r="B368" t="s">
         <v>1757</v>
@@ -84669,7 +84659,7 @@
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
-        <v>554</v>
+        <v>391</v>
       </c>
       <c r="B369" t="s">
         <v>1757</v>
@@ -84677,7 +84667,7 @@
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>391</v>
+        <v>289</v>
       </c>
       <c r="B370" t="s">
         <v>1757</v>
@@ -84685,7 +84675,7 @@
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>289</v>
+        <v>230</v>
       </c>
       <c r="B371" t="s">
         <v>1757</v>
@@ -84693,7 +84683,7 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>230</v>
+        <v>63</v>
       </c>
       <c r="B372" t="s">
         <v>1757</v>
@@ -84701,7 +84691,7 @@
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="B373" t="s">
         <v>1757</v>
@@ -84709,7 +84699,7 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="B374" t="s">
         <v>1757</v>
@@ -84717,7 +84707,7 @@
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="B375" t="s">
         <v>1757</v>
@@ -84725,7 +84715,7 @@
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>19</v>
+        <v>258</v>
       </c>
       <c r="B376" t="s">
         <v>1757</v>
@@ -84733,7 +84723,7 @@
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="B377" t="s">
         <v>1757</v>
@@ -84741,7 +84731,7 @@
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>28</v>
+        <v>584</v>
       </c>
       <c r="B378" t="s">
         <v>1757</v>
@@ -84749,7 +84739,7 @@
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>584</v>
+        <v>29</v>
       </c>
       <c r="B379" t="s">
         <v>1757</v>
@@ -84757,7 +84747,7 @@
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>29</v>
+        <v>565</v>
       </c>
       <c r="B380" t="s">
         <v>1757</v>
@@ -84765,7 +84755,7 @@
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>565</v>
+        <v>499</v>
       </c>
       <c r="B381" t="s">
         <v>1757</v>
@@ -84773,7 +84763,7 @@
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>499</v>
+        <v>444</v>
       </c>
       <c r="B382" t="s">
         <v>1757</v>
@@ -84781,7 +84771,7 @@
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>444</v>
+        <v>299</v>
       </c>
       <c r="B383" t="s">
         <v>1757</v>
@@ -84789,7 +84779,7 @@
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>299</v>
+        <v>217</v>
       </c>
       <c r="B384" t="s">
         <v>1757</v>
@@ -84797,7 +84787,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>217</v>
+        <v>413</v>
       </c>
       <c r="B385" t="s">
         <v>1757</v>
@@ -84805,7 +84795,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>413</v>
+        <v>87</v>
       </c>
       <c r="B386" t="s">
         <v>1757</v>
@@ -84813,7 +84803,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>87</v>
+        <v>219</v>
       </c>
       <c r="B387" t="s">
         <v>1757</v>
@@ -84821,7 +84811,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>219</v>
+        <v>187</v>
       </c>
       <c r="B388" t="s">
         <v>1757</v>
@@ -84829,7 +84819,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
-        <v>187</v>
+        <v>357</v>
       </c>
       <c r="B389" t="s">
         <v>1757</v>
@@ -84837,7 +84827,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>357</v>
+        <v>108</v>
       </c>
       <c r="B390" t="s">
         <v>1757</v>
@@ -84845,7 +84835,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="B391" t="s">
         <v>1757</v>
@@ -84853,7 +84843,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>21</v>
+        <v>436</v>
       </c>
       <c r="B392" t="s">
         <v>1757</v>
@@ -84861,7 +84851,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
-        <v>436</v>
+        <v>142</v>
       </c>
       <c r="B393" t="s">
         <v>1757</v>
@@ -84869,7 +84859,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>142</v>
+        <v>348</v>
       </c>
       <c r="B394" t="s">
         <v>1757</v>
@@ -84877,7 +84867,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
-        <v>348</v>
+        <v>250</v>
       </c>
       <c r="B395" t="s">
         <v>1757</v>
@@ -84885,7 +84875,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>250</v>
+        <v>415</v>
       </c>
       <c r="B396" t="s">
         <v>1757</v>
@@ -84893,7 +84883,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>415</v>
+        <v>112</v>
       </c>
       <c r="B397" t="s">
         <v>1757</v>
@@ -84901,7 +84891,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>112</v>
+        <v>546</v>
       </c>
       <c r="B398" t="s">
         <v>1757</v>
@@ -84909,7 +84899,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
-        <v>546</v>
+        <v>424</v>
       </c>
       <c r="B399" t="s">
         <v>1757</v>
@@ -84917,7 +84907,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>424</v>
+        <v>345</v>
       </c>
       <c r="B400" t="s">
         <v>1757</v>
@@ -84925,7 +84915,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="B401" t="s">
         <v>1757</v>
@@ -84933,7 +84923,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>380</v>
+        <v>229</v>
       </c>
       <c r="B402" t="s">
         <v>1757</v>
@@ -84941,7 +84931,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="B403" t="s">
         <v>1757</v>
@@ -84949,7 +84939,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>379</v>
+        <v>228</v>
       </c>
       <c r="B404" t="s">
         <v>1757</v>
@@ -84957,7 +84947,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
-        <v>228</v>
+        <v>631</v>
       </c>
       <c r="B405" t="s">
         <v>1757</v>
@@ -84965,7 +84955,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>631</v>
+        <v>356</v>
       </c>
       <c r="B406" t="s">
         <v>1757</v>
@@ -84973,7 +84963,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="B407" t="s">
         <v>1757</v>
@@ -84981,7 +84971,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>278</v>
+        <v>22</v>
       </c>
       <c r="B408" t="s">
         <v>1757</v>
@@ -84989,7 +84979,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
-        <v>22</v>
+        <v>594</v>
       </c>
       <c r="B409" t="s">
         <v>1757</v>
@@ -84997,7 +84987,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>594</v>
+        <v>36</v>
       </c>
       <c r="B410" t="s">
         <v>1757</v>
@@ -85005,7 +84995,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>36</v>
+        <v>452</v>
       </c>
       <c r="B411" t="s">
         <v>1757</v>
@@ -85013,7 +85003,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>452</v>
+        <v>246</v>
       </c>
       <c r="B412" t="s">
         <v>1757</v>
@@ -85021,7 +85011,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>246</v>
+        <v>483</v>
       </c>
       <c r="B413" t="s">
         <v>1757</v>
@@ -85029,7 +85019,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>483</v>
+        <v>586</v>
       </c>
       <c r="B414" t="s">
         <v>1757</v>
@@ -85037,7 +85027,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>586</v>
+        <v>161</v>
       </c>
       <c r="B415" t="s">
         <v>1757</v>
@@ -85045,7 +85035,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B416" t="s">
         <v>1757</v>
@@ -85053,7 +85043,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="B417" t="s">
         <v>1757</v>
@@ -85061,7 +85051,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>181</v>
+        <v>486</v>
       </c>
       <c r="B418" t="s">
         <v>1757</v>
@@ -85069,7 +85059,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>486</v>
+        <v>395</v>
       </c>
       <c r="B419" t="s">
         <v>1757</v>
@@ -85077,7 +85067,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>395</v>
+        <v>125</v>
       </c>
       <c r="B420" t="s">
         <v>1757</v>
@@ -85085,7 +85075,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="B421" t="s">
         <v>1757</v>
@@ -85093,7 +85083,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>274</v>
+        <v>547</v>
       </c>
       <c r="B422" t="s">
         <v>1757</v>
@@ -85101,7 +85091,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>547</v>
+        <v>16</v>
       </c>
       <c r="B423" t="s">
         <v>1757</v>
@@ -85109,7 +85099,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>16</v>
+        <v>129</v>
       </c>
       <c r="B424" t="s">
         <v>1757</v>
@@ -85117,7 +85107,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>129</v>
+        <v>347</v>
       </c>
       <c r="B425" t="s">
         <v>1757</v>
@@ -85125,7 +85115,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="B426" t="s">
         <v>1757</v>
@@ -85133,7 +85123,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>329</v>
+        <v>518</v>
       </c>
       <c r="B427" t="s">
         <v>1757</v>
@@ -85141,7 +85131,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>518</v>
+        <v>567</v>
       </c>
       <c r="B428" t="s">
         <v>1757</v>
@@ -85149,7 +85139,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>567</v>
+        <v>101</v>
       </c>
       <c r="B429" t="s">
         <v>1757</v>
@@ -85157,7 +85147,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="B430" t="s">
         <v>1757</v>
@@ -85165,7 +85155,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>62</v>
+        <v>473</v>
       </c>
       <c r="B431" t="s">
         <v>1757</v>
@@ -85173,7 +85163,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>473</v>
+        <v>152</v>
       </c>
       <c r="B432" t="s">
         <v>1757</v>
@@ -85181,7 +85171,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="B433" t="s">
         <v>1757</v>
@@ -85189,7 +85179,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>196</v>
+        <v>549</v>
       </c>
       <c r="B434" t="s">
         <v>1757</v>
@@ -85197,7 +85187,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>549</v>
+        <v>70</v>
       </c>
       <c r="B435" t="s">
         <v>1757</v>
@@ -85205,7 +85195,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>70</v>
+        <v>466</v>
       </c>
       <c r="B436" t="s">
         <v>1757</v>
@@ -85213,7 +85203,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>466</v>
+        <v>343</v>
       </c>
       <c r="B437" t="s">
         <v>1757</v>
@@ -85221,7 +85211,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>343</v>
+        <v>443</v>
       </c>
       <c r="B438" t="s">
         <v>1757</v>
@@ -85229,7 +85219,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>443</v>
+        <v>52</v>
       </c>
       <c r="B439" t="s">
         <v>1757</v>
@@ -85237,7 +85227,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>52</v>
+        <v>262</v>
       </c>
       <c r="B440" t="s">
         <v>1757</v>
@@ -85245,7 +85235,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>262</v>
+        <v>148</v>
       </c>
       <c r="B441" t="s">
         <v>1757</v>
@@ -85253,7 +85243,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="B442" t="s">
         <v>1757</v>
@@ -85261,7 +85251,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>237</v>
+        <v>373</v>
       </c>
       <c r="B443" t="s">
         <v>1757</v>
@@ -85269,7 +85259,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>373</v>
+        <v>564</v>
       </c>
       <c r="B444" t="s">
         <v>1757</v>
@@ -85277,7 +85267,7 @@
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>564</v>
+        <v>71</v>
       </c>
       <c r="B445" t="s">
         <v>1757</v>
@@ -85285,7 +85275,7 @@
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>71</v>
+        <v>610</v>
       </c>
       <c r="B446" t="s">
         <v>1757</v>
@@ -85293,7 +85283,7 @@
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B447" t="s">
         <v>1757</v>
@@ -85301,7 +85291,7 @@
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>602</v>
+        <v>360</v>
       </c>
       <c r="B448" t="s">
         <v>1757</v>
@@ -85309,7 +85299,7 @@
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
-        <v>360</v>
+        <v>502</v>
       </c>
       <c r="B449" t="s">
         <v>1757</v>
@@ -85317,7 +85307,7 @@
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="B450" t="s">
         <v>1757</v>
@@ -85325,7 +85315,7 @@
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>524</v>
+        <v>432</v>
       </c>
       <c r="B451" t="s">
         <v>1757</v>
@@ -85333,7 +85323,7 @@
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>432</v>
+        <v>74</v>
       </c>
       <c r="B452" t="s">
         <v>1757</v>
@@ -85341,7 +85331,7 @@
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>74</v>
+        <v>539</v>
       </c>
       <c r="B453" t="s">
         <v>1757</v>
@@ -85349,7 +85339,7 @@
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>539</v>
+        <v>123</v>
       </c>
       <c r="B454" t="s">
         <v>1757</v>
@@ -85357,7 +85347,7 @@
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>123</v>
+        <v>207</v>
       </c>
       <c r="B455" t="s">
         <v>1757</v>
@@ -85365,7 +85355,7 @@
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>207</v>
+        <v>369</v>
       </c>
       <c r="B456" t="s">
         <v>1757</v>
@@ -85373,7 +85363,7 @@
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="B457" t="s">
         <v>1757</v>
@@ -85381,7 +85371,7 @@
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>387</v>
+        <v>251</v>
       </c>
       <c r="B458" t="s">
         <v>1757</v>
@@ -85389,7 +85379,7 @@
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>251</v>
+        <v>517</v>
       </c>
       <c r="B459" t="s">
         <v>1757</v>
@@ -85397,7 +85387,7 @@
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>517</v>
+        <v>225</v>
       </c>
       <c r="B460" t="s">
         <v>1757</v>
@@ -85405,7 +85395,7 @@
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="B461" t="s">
         <v>1757</v>
@@ -85413,7 +85403,7 @@
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>296</v>
+        <v>460</v>
       </c>
       <c r="B462" t="s">
         <v>1757</v>
@@ -85421,7 +85411,7 @@
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>460</v>
+        <v>598</v>
       </c>
       <c r="B463" t="s">
         <v>1757</v>
@@ -85429,7 +85419,7 @@
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>598</v>
+        <v>323</v>
       </c>
       <c r="B464" t="s">
         <v>1757</v>
@@ -85437,7 +85427,7 @@
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>323</v>
+        <v>206</v>
       </c>
       <c r="B465" t="s">
         <v>1757</v>
@@ -85445,7 +85435,7 @@
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>206</v>
+        <v>464</v>
       </c>
       <c r="B466" t="s">
         <v>1757</v>
@@ -85453,7 +85443,7 @@
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>464</v>
+        <v>224</v>
       </c>
       <c r="B467" t="s">
         <v>1757</v>
@@ -85461,7 +85451,7 @@
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>224</v>
+        <v>428</v>
       </c>
       <c r="B468" t="s">
         <v>1757</v>
@@ -85469,7 +85459,7 @@
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>428</v>
+        <v>597</v>
       </c>
       <c r="B469" t="s">
         <v>1757</v>
@@ -85477,7 +85467,7 @@
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>597</v>
+        <v>174</v>
       </c>
       <c r="B470" t="s">
         <v>1757</v>
@@ -85485,7 +85475,7 @@
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>174</v>
+        <v>580</v>
       </c>
       <c r="B471" t="s">
         <v>1757</v>
@@ -85493,7 +85483,7 @@
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>580</v>
+        <v>388</v>
       </c>
       <c r="B472" t="s">
         <v>1757</v>
@@ -85501,7 +85491,7 @@
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
-        <v>388</v>
+        <v>308</v>
       </c>
       <c r="B473" t="s">
         <v>1757</v>
@@ -85509,7 +85499,7 @@
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="B474" t="s">
         <v>1757</v>
@@ -85517,7 +85507,7 @@
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>290</v>
+        <v>557</v>
       </c>
       <c r="B475" t="s">
         <v>1757</v>
@@ -85525,7 +85515,7 @@
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>557</v>
+        <v>468</v>
       </c>
       <c r="B476" t="s">
         <v>1757</v>
@@ -85533,7 +85523,7 @@
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>468</v>
+        <v>386</v>
       </c>
       <c r="B477" t="s">
         <v>1757</v>
@@ -85541,7 +85531,7 @@
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>386</v>
+        <v>536</v>
       </c>
       <c r="B478" t="s">
         <v>1757</v>
@@ -85549,7 +85539,7 @@
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>536</v>
+        <v>35</v>
       </c>
       <c r="B479" t="s">
         <v>1757</v>
@@ -85557,7 +85547,7 @@
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>35</v>
+        <v>221</v>
       </c>
       <c r="B480" t="s">
         <v>1757</v>
@@ -85565,7 +85555,7 @@
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>221</v>
+        <v>15</v>
       </c>
       <c r="B481" t="s">
         <v>1757</v>
@@ -85573,7 +85563,7 @@
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>15</v>
+        <v>463</v>
       </c>
       <c r="B482" t="s">
         <v>1757</v>
@@ -85581,7 +85571,7 @@
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>463</v>
+        <v>503</v>
       </c>
       <c r="B483" t="s">
         <v>1757</v>
@@ -85589,7 +85579,7 @@
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>503</v>
+        <v>583</v>
       </c>
       <c r="B484" t="s">
         <v>1757</v>
@@ -85597,7 +85587,7 @@
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="B485" t="s">
         <v>1757</v>
@@ -85605,7 +85595,7 @@
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>590</v>
+        <v>321</v>
       </c>
       <c r="B486" t="s">
         <v>1757</v>
@@ -85613,7 +85603,7 @@
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>321</v>
+        <v>578</v>
       </c>
       <c r="B487" t="s">
         <v>1757</v>
@@ -85621,7 +85611,7 @@
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>578</v>
+        <v>61</v>
       </c>
       <c r="B488" t="s">
         <v>1757</v>
@@ -85629,7 +85619,7 @@
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>61</v>
+        <v>479</v>
       </c>
       <c r="B489" t="s">
         <v>1757</v>
@@ -85637,7 +85627,7 @@
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>479</v>
+        <v>264</v>
       </c>
       <c r="B490" t="s">
         <v>1757</v>
@@ -85645,7 +85635,7 @@
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>264</v>
+        <v>506</v>
       </c>
       <c r="B491" t="s">
         <v>1757</v>
@@ -85653,7 +85643,7 @@
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
       <c r="B492" t="s">
         <v>1757</v>
@@ -85661,7 +85651,7 @@
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>472</v>
+        <v>390</v>
       </c>
       <c r="B493" t="s">
         <v>1757</v>
@@ -85669,7 +85659,7 @@
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>390</v>
+        <v>591</v>
       </c>
       <c r="B494" t="s">
         <v>1757</v>
@@ -85677,17 +85667,9 @@
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>591</v>
+        <v>155</v>
       </c>
       <c r="B495" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A496" t="s">
-        <v>155</v>
-      </c>
-      <c r="B496" t="s">
         <v>1757</v>
       </c>
     </row>
@@ -85695,8 +85677,8 @@
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A98:A496">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  <conditionalFormatting sqref="A97:A495">
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -87725,7 +87707,7 @@
   </sheetData>
   <autoFilter ref="A1:A403" xr:uid="{34855E2C-7FBA-42FC-9C72-6721D4DBD788}"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/.xlsx/full_stock_classification.xlsx
+++ b/.xlsx/full_stock_classification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\twan-projects\py-app\.xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8696A608-6C33-4EE8-8C33-CB14CFBA827F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAB6F6E-19D7-4386-B3EB-611C051CB142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22046" yWindow="-103" windowWidth="22149" windowHeight="13200" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quarter_stock_list" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17966" uniqueCount="1759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17978" uniqueCount="1768">
   <si>
     <t>PGC</t>
   </si>
@@ -5326,13 +5326,40 @@
   </si>
   <si>
     <t>o</t>
+  </si>
+  <si>
+    <t>small_6stocks</t>
+  </si>
+  <si>
+    <t>portfolio</t>
+  </si>
+  <si>
+    <t>small_10stocks</t>
+  </si>
+  <si>
+    <t>large_6stocks</t>
+  </si>
+  <si>
+    <t>medium_6stocks</t>
+  </si>
+  <si>
+    <t>SMALL10</t>
+  </si>
+  <si>
+    <t>SMALL6</t>
+  </si>
+  <si>
+    <t>MEDIUM6</t>
+  </si>
+  <si>
+    <t>LARGE6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5352,6 +5379,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -81244,16 +81277,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC4401C-D304-4750-8CED-A9CF758C9679}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -81706,7 +81739,64 @@
         <v>1</v>
       </c>
     </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1759</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1767</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -81715,7 +81805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD58B990-4E93-4226-B2C3-FA35F0465DC7}">
   <dimension ref="A1:B495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A482" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A482" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I489" sqref="I489"/>
     </sheetView>
   </sheetViews>

--- a/.xlsx/full_stock_classification.xlsx
+++ b/.xlsx/full_stock_classification.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\twan-projects\py-app\.xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECAB6F6E-19D7-4386-B3EB-611C051CB142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E928BD7-1755-4C88-9BE9-4DB405F2B768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-69" yWindow="-69" windowWidth="22080" windowHeight="13132" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="quarter_stock_list" sheetId="5" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17978" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17994" uniqueCount="1768">
   <si>
     <t>PGC</t>
   </si>
@@ -5443,7 +5443,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5451,6 +5451,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -32284,9 +32287,9 @@
         <f>VLOOKUP(D42,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G42" t="e">
+      <c r="G42" t="str">
         <f>VLOOKUP(A42,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -34894,9 +34897,9 @@
         <f>VLOOKUP(D132,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G132" t="e">
+      <c r="G132" t="str">
         <f>VLOOKUP(A132,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -35184,9 +35187,9 @@
         <f>VLOOKUP(D142,name_map!$A$2:$D$32,3,0)</f>
         <v>DV hạ tầng</v>
       </c>
-      <c r="G142" t="e">
+      <c r="G142" t="str">
         <f>VLOOKUP(A142,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -37330,9 +37333,9 @@
         <f>VLOOKUP(D216,name_map!$A$2:$D$32,3,0)</f>
         <v>Xây dựng</v>
       </c>
-      <c r="G216" t="e">
+      <c r="G216" t="str">
         <f>VLOOKUP(A216,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
@@ -41505,9 +41508,9 @@
         <f>VLOOKUP(D360,name_map!$A$2:$D$32,3,0)</f>
         <v>Bảo hiểm</v>
       </c>
-      <c r="G360" t="e">
+      <c r="G360" t="str">
         <f>VLOOKUP(A360,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
@@ -42374,9 +42377,9 @@
         <f>VLOOKUP(D390,name_map!$A$2:$D$32,3,0)</f>
         <v>Y tế</v>
       </c>
-      <c r="G390" t="e">
+      <c r="G390" t="str">
         <f>VLOOKUP(A390,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
@@ -45912,9 +45915,9 @@
         <f>VLOOKUP(D512,name_map!$A$2:$D$32,3,0)</f>
         <v>BĐS KCN</v>
       </c>
-      <c r="G512" t="e">
+      <c r="G512" t="str">
         <f>VLOOKUP(A512,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
@@ -46724,9 +46727,9 @@
         <f>VLOOKUP(D540,name_map!$A$2:$D$32,3,0)</f>
         <v>Bán lẻ</v>
       </c>
-      <c r="G540" t="e">
+      <c r="G540" t="str">
         <f>VLOOKUP(A540,signal_stock!$A:$B,2,0)</f>
-        <v>#N/A</v>
+        <v>x</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
@@ -81279,7 +81282,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC4401C-D304-4750-8CED-A9CF758C9679}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -81803,10 +81806,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD58B990-4E93-4226-B2C3-FA35F0465DC7}">
-  <dimension ref="A1:B495"/>
+  <dimension ref="A1:B503"/>
   <sheetViews>
-    <sheetView topLeftCell="A482" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I489" sqref="I489"/>
+    <sheetView tabSelected="1" topLeftCell="A491" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I501" sqref="I501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -85763,8 +85766,72 @@
         <v>1757</v>
       </c>
     </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A496" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B496" s="4" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A498" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B498" s="4" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A499" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B500" s="4" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A501" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B501" s="4" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A502" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A503" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="B503" s="4" t="s">
+        <v>1757</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
+  <conditionalFormatting sqref="A504:A1048576 A1:A495">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A97:A495">
